--- a/template/ExcelTemplate_A.xlsx
+++ b/template/ExcelTemplate_A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="技術経歴書" sheetId="4" r:id="rId1"/>
@@ -282,12 +282,6 @@
     <phoneticPr fontId="21"/>
   </si>
   <si>
-    <t>株式会社クシムソフト
-東京都港区南青山6-7-2
-VORT南青山Ⅰ 3F</t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
     <t>氏　　名</t>
     <rPh sb="0" eb="1">
       <t>シ</t>
@@ -341,6 +335,12 @@
   </si>
   <si>
     <t>作　業　規　模</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>株式会社クシムソフト
+東京都港区南青山5-11-9
+レキシントン青山 3 階</t>
     <phoneticPr fontId="21"/>
   </si>
 </sst>
@@ -1428,6 +1428,165 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1452,176 +1611,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2037,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:CC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.375" defaultRowHeight="13.5"/>
@@ -2051,763 +2051,763 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="13.5" customHeight="1">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="62" t="s">
-        <v>17</v>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="74" t="s">
+        <v>28</v>
       </c>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="63"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="63"/>
-      <c r="BQ1" s="63"/>
-      <c r="BR1" s="63"/>
-      <c r="BS1" s="63"/>
-      <c r="BT1" s="63"/>
-      <c r="BU1" s="63"/>
-      <c r="BV1" s="63"/>
-      <c r="BW1" s="63"/>
-      <c r="BX1" s="63"/>
-      <c r="BY1" s="63"/>
-      <c r="BZ1" s="63"/>
-      <c r="CA1" s="63"/>
-      <c r="CB1" s="63"/>
-      <c r="CC1" s="64"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
+      <c r="BG1" s="75"/>
+      <c r="BH1" s="75"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="75"/>
+      <c r="BK1" s="75"/>
+      <c r="BL1" s="75"/>
+      <c r="BM1" s="75"/>
+      <c r="BN1" s="75"/>
+      <c r="BO1" s="75"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
+      <c r="BR1" s="75"/>
+      <c r="BS1" s="75"/>
+      <c r="BT1" s="75"/>
+      <c r="BU1" s="75"/>
+      <c r="BV1" s="75"/>
+      <c r="BW1" s="75"/>
+      <c r="BX1" s="75"/>
+      <c r="BY1" s="75"/>
+      <c r="BZ1" s="75"/>
+      <c r="CA1" s="75"/>
+      <c r="CB1" s="75"/>
+      <c r="CC1" s="76"/>
     </row>
     <row r="2" spans="1:97" ht="13.5" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="66"/>
-      <c r="BM2" s="66"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="66"/>
-      <c r="BP2" s="66"/>
-      <c r="BQ2" s="66"/>
-      <c r="BR2" s="66"/>
-      <c r="BS2" s="66"/>
-      <c r="BT2" s="66"/>
-      <c r="BU2" s="66"/>
-      <c r="BV2" s="66"/>
-      <c r="BW2" s="66"/>
-      <c r="BX2" s="66"/>
-      <c r="BY2" s="66"/>
-      <c r="BZ2" s="66"/>
-      <c r="CA2" s="66"/>
-      <c r="CB2" s="66"/>
-      <c r="CC2" s="67"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="78"/>
+      <c r="BZ2" s="78"/>
+      <c r="CA2" s="78"/>
+      <c r="CB2" s="78"/>
+      <c r="CC2" s="79"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" customHeight="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="66"/>
-      <c r="BT3" s="66"/>
-      <c r="BU3" s="66"/>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="67"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78"/>
+      <c r="BS3" s="78"/>
+      <c r="BT3" s="78"/>
+      <c r="BU3" s="78"/>
+      <c r="BV3" s="78"/>
+      <c r="BW3" s="78"/>
+      <c r="BX3" s="78"/>
+      <c r="BY3" s="78"/>
+      <c r="BZ3" s="78"/>
+      <c r="CA3" s="78"/>
+      <c r="CB3" s="78"/>
+      <c r="CC3" s="79"/>
     </row>
     <row r="4" spans="1:97" ht="13.5" customHeight="1">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="66"/>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="66"/>
-      <c r="BT4" s="66"/>
-      <c r="BU4" s="66"/>
-      <c r="BV4" s="66"/>
-      <c r="BW4" s="66"/>
-      <c r="BX4" s="66"/>
-      <c r="BY4" s="66"/>
-      <c r="BZ4" s="66"/>
-      <c r="CA4" s="66"/>
-      <c r="CB4" s="66"/>
-      <c r="CC4" s="67"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="78"/>
+      <c r="BM4" s="78"/>
+      <c r="BN4" s="78"/>
+      <c r="BO4" s="78"/>
+      <c r="BP4" s="78"/>
+      <c r="BQ4" s="78"/>
+      <c r="BR4" s="78"/>
+      <c r="BS4" s="78"/>
+      <c r="BT4" s="78"/>
+      <c r="BU4" s="78"/>
+      <c r="BV4" s="78"/>
+      <c r="BW4" s="78"/>
+      <c r="BX4" s="78"/>
+      <c r="BY4" s="78"/>
+      <c r="BZ4" s="78"/>
+      <c r="CA4" s="78"/>
+      <c r="CB4" s="78"/>
+      <c r="CC4" s="79"/>
     </row>
     <row r="5" spans="1:97" ht="12" customHeight="1">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="69"/>
-      <c r="BD5" s="69"/>
-      <c r="BE5" s="69"/>
-      <c r="BF5" s="69"/>
-      <c r="BG5" s="69"/>
-      <c r="BH5" s="69"/>
-      <c r="BI5" s="69"/>
-      <c r="BJ5" s="69"/>
-      <c r="BK5" s="69"/>
-      <c r="BL5" s="69"/>
-      <c r="BM5" s="69"/>
-      <c r="BN5" s="69"/>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="69"/>
-      <c r="BS5" s="69"/>
-      <c r="BT5" s="69"/>
-      <c r="BU5" s="69"/>
-      <c r="BV5" s="69"/>
-      <c r="BW5" s="69"/>
-      <c r="BX5" s="69"/>
-      <c r="BY5" s="69"/>
-      <c r="BZ5" s="69"/>
-      <c r="CA5" s="69"/>
-      <c r="CB5" s="69"/>
-      <c r="CC5" s="70"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="81"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="81"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="81"/>
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="81"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="81"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="81"/>
+      <c r="BJ5" s="81"/>
+      <c r="BK5" s="81"/>
+      <c r="BL5" s="81"/>
+      <c r="BM5" s="81"/>
+      <c r="BN5" s="81"/>
+      <c r="BO5" s="81"/>
+      <c r="BP5" s="81"/>
+      <c r="BQ5" s="81"/>
+      <c r="BR5" s="81"/>
+      <c r="BS5" s="81"/>
+      <c r="BT5" s="81"/>
+      <c r="BU5" s="81"/>
+      <c r="BV5" s="81"/>
+      <c r="BW5" s="81"/>
+      <c r="BX5" s="81"/>
+      <c r="BY5" s="81"/>
+      <c r="BZ5" s="81"/>
+      <c r="CA5" s="81"/>
+      <c r="CB5" s="81"/>
+      <c r="CC5" s="82"/>
     </row>
     <row r="6" spans="1:97" ht="3.75" customHeight="1"/>
     <row r="7" spans="1:97" ht="16.5" customHeight="1">
-      <c r="B7" s="31" t="s">
-        <v>18</v>
+      <c r="B7" s="84" t="s">
+        <v>17</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="58" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="58" t="s">
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="58" t="s">
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="59"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="75" t="s">
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="BB7" s="76"/>
-      <c r="BC7" s="76"/>
-      <c r="BD7" s="76"/>
-      <c r="BE7" s="76"/>
-      <c r="BF7" s="76"/>
-      <c r="BG7" s="76"/>
-      <c r="BH7" s="76"/>
-      <c r="BI7" s="76"/>
-      <c r="BJ7" s="76"/>
-      <c r="BK7" s="76"/>
-      <c r="BL7" s="76"/>
-      <c r="BM7" s="76"/>
-      <c r="BN7" s="76"/>
-      <c r="BO7" s="76"/>
-      <c r="BP7" s="76"/>
-      <c r="BQ7" s="76"/>
-      <c r="BR7" s="76"/>
-      <c r="BS7" s="76"/>
-      <c r="BT7" s="76"/>
-      <c r="BU7" s="76"/>
-      <c r="BV7" s="76"/>
-      <c r="BW7" s="76"/>
-      <c r="BX7" s="76"/>
-      <c r="BY7" s="76"/>
-      <c r="BZ7" s="76"/>
-      <c r="CA7" s="76"/>
-      <c r="CB7" s="76"/>
-      <c r="CC7" s="77"/>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="47"/>
+      <c r="BD7" s="47"/>
+      <c r="BE7" s="47"/>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="47"/>
+      <c r="BH7" s="47"/>
+      <c r="BI7" s="47"/>
+      <c r="BJ7" s="47"/>
+      <c r="BK7" s="47"/>
+      <c r="BL7" s="47"/>
+      <c r="BM7" s="47"/>
+      <c r="BN7" s="47"/>
+      <c r="BO7" s="47"/>
+      <c r="BP7" s="47"/>
+      <c r="BQ7" s="47"/>
+      <c r="BR7" s="47"/>
+      <c r="BS7" s="47"/>
+      <c r="BT7" s="47"/>
+      <c r="BU7" s="47"/>
+      <c r="BV7" s="47"/>
+      <c r="BW7" s="47"/>
+      <c r="BX7" s="47"/>
+      <c r="BY7" s="47"/>
+      <c r="BZ7" s="47"/>
+      <c r="CA7" s="47"/>
+      <c r="CB7" s="47"/>
+      <c r="CC7" s="48"/>
     </row>
     <row r="8" spans="1:97" ht="16.5" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="39"/>
-      <c r="BC8" s="39"/>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="39"/>
-      <c r="BF8" s="39"/>
-      <c r="BG8" s="39"/>
-      <c r="BH8" s="39"/>
-      <c r="BI8" s="39"/>
-      <c r="BJ8" s="39"/>
-      <c r="BK8" s="39"/>
-      <c r="BL8" s="39"/>
-      <c r="BM8" s="39"/>
-      <c r="BN8" s="39"/>
-      <c r="BO8" s="39"/>
-      <c r="BP8" s="39"/>
-      <c r="BQ8" s="39"/>
-      <c r="BR8" s="39"/>
-      <c r="BS8" s="39"/>
-      <c r="BT8" s="39"/>
-      <c r="BU8" s="39"/>
-      <c r="BV8" s="39"/>
-      <c r="BW8" s="39"/>
-      <c r="BX8" s="39"/>
-      <c r="BY8" s="39"/>
-      <c r="BZ8" s="39"/>
-      <c r="CA8" s="39"/>
-      <c r="CB8" s="39"/>
-      <c r="CC8" s="40"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="43"/>
+      <c r="AT8" s="43"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="43"/>
+      <c r="AW8" s="43"/>
+      <c r="AX8" s="43"/>
+      <c r="AY8" s="43"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="54"/>
+      <c r="BD8" s="54"/>
+      <c r="BE8" s="54"/>
+      <c r="BF8" s="54"/>
+      <c r="BG8" s="54"/>
+      <c r="BH8" s="54"/>
+      <c r="BI8" s="54"/>
+      <c r="BJ8" s="54"/>
+      <c r="BK8" s="54"/>
+      <c r="BL8" s="54"/>
+      <c r="BM8" s="54"/>
+      <c r="BN8" s="54"/>
+      <c r="BO8" s="54"/>
+      <c r="BP8" s="54"/>
+      <c r="BQ8" s="54"/>
+      <c r="BR8" s="54"/>
+      <c r="BS8" s="54"/>
+      <c r="BT8" s="54"/>
+      <c r="BU8" s="54"/>
+      <c r="BV8" s="54"/>
+      <c r="BW8" s="54"/>
+      <c r="BX8" s="54"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="54"/>
+      <c r="CA8" s="54"/>
+      <c r="CB8" s="54"/>
+      <c r="CC8" s="55"/>
     </row>
     <row r="9" spans="1:97" ht="18" customHeight="1">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="75" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="31" t="s">
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32"/>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32"/>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32"/>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32"/>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32"/>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="33"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="85"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="85"/>
+      <c r="BB9" s="85"/>
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
+      <c r="BE9" s="85"/>
+      <c r="BF9" s="85"/>
+      <c r="BG9" s="85"/>
+      <c r="BH9" s="85"/>
+      <c r="BI9" s="85"/>
+      <c r="BJ9" s="85"/>
+      <c r="BK9" s="85"/>
+      <c r="BL9" s="85"/>
+      <c r="BM9" s="85"/>
+      <c r="BN9" s="85"/>
+      <c r="BO9" s="85"/>
+      <c r="BP9" s="85"/>
+      <c r="BQ9" s="85"/>
+      <c r="BR9" s="85"/>
+      <c r="BS9" s="85"/>
+      <c r="BT9" s="85"/>
+      <c r="BU9" s="85"/>
+      <c r="BV9" s="85"/>
+      <c r="BW9" s="85"/>
+      <c r="BX9" s="85"/>
+      <c r="BY9" s="85"/>
+      <c r="BZ9" s="85"/>
+      <c r="CA9" s="85"/>
+      <c r="CB9" s="85"/>
+      <c r="CC9" s="86"/>
     </row>
     <row r="10" spans="1:97" ht="41.25" customHeight="1">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="72"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="72"/>
-      <c r="BC10" s="72"/>
-      <c r="BD10" s="72"/>
-      <c r="BE10" s="72"/>
-      <c r="BF10" s="72"/>
-      <c r="BG10" s="72"/>
-      <c r="BH10" s="72"/>
-      <c r="BI10" s="72"/>
-      <c r="BJ10" s="72"/>
-      <c r="BK10" s="72"/>
-      <c r="BL10" s="72"/>
-      <c r="BM10" s="72"/>
-      <c r="BN10" s="72"/>
-      <c r="BO10" s="72"/>
-      <c r="BP10" s="72"/>
-      <c r="BQ10" s="72"/>
-      <c r="BR10" s="72"/>
-      <c r="BS10" s="72"/>
-      <c r="BT10" s="72"/>
-      <c r="BU10" s="72"/>
-      <c r="BV10" s="72"/>
-      <c r="BW10" s="72"/>
-      <c r="BX10" s="72"/>
-      <c r="BY10" s="72"/>
-      <c r="BZ10" s="72"/>
-      <c r="CA10" s="72"/>
-      <c r="CB10" s="72"/>
-      <c r="CC10" s="73"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="57"/>
+      <c r="AZ10" s="57"/>
+      <c r="BA10" s="57"/>
+      <c r="BB10" s="57"/>
+      <c r="BC10" s="57"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="57"/>
+      <c r="BF10" s="57"/>
+      <c r="BG10" s="57"/>
+      <c r="BH10" s="57"/>
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="57"/>
+      <c r="BK10" s="57"/>
+      <c r="BL10" s="57"/>
+      <c r="BM10" s="57"/>
+      <c r="BN10" s="57"/>
+      <c r="BO10" s="57"/>
+      <c r="BP10" s="57"/>
+      <c r="BQ10" s="57"/>
+      <c r="BR10" s="57"/>
+      <c r="BS10" s="57"/>
+      <c r="BT10" s="57"/>
+      <c r="BU10" s="57"/>
+      <c r="BV10" s="57"/>
+      <c r="BW10" s="57"/>
+      <c r="BX10" s="57"/>
+      <c r="BY10" s="57"/>
+      <c r="BZ10" s="57"/>
+      <c r="CA10" s="57"/>
+      <c r="CB10" s="57"/>
+      <c r="CC10" s="58"/>
     </row>
     <row r="11" spans="1:97" ht="3" customHeight="1">
       <c r="D11" s="17"/>
@@ -2890,16 +2890,16 @@
     <row r="12" spans="1:97" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3055,34 +3055,34 @@
     <row r="14" spans="1:97" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
@@ -3140,84 +3140,84 @@
     <row r="15" spans="1:97" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="16"/>
-      <c r="D15" s="48" t="s">
-        <v>21</v>
+      <c r="D15" s="60" t="s">
+        <v>20</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="78"/>
-      <c r="AZ15" s="78"/>
-      <c r="BA15" s="78"/>
-      <c r="BB15" s="78"/>
-      <c r="BC15" s="78"/>
-      <c r="BD15" s="78"/>
-      <c r="BE15" s="78"/>
-      <c r="BF15" s="78"/>
-      <c r="BG15" s="78"/>
-      <c r="BH15" s="78"/>
-      <c r="BI15" s="78"/>
-      <c r="BJ15" s="78"/>
-      <c r="BK15" s="78"/>
-      <c r="BL15" s="78"/>
-      <c r="BM15" s="78"/>
-      <c r="BN15" s="78"/>
-      <c r="BO15" s="78"/>
-      <c r="BP15" s="78"/>
-      <c r="BQ15" s="78"/>
-      <c r="BR15" s="78"/>
-      <c r="BS15" s="78"/>
-      <c r="BT15" s="78"/>
-      <c r="BU15" s="78"/>
-      <c r="BV15" s="78"/>
-      <c r="BW15" s="78"/>
-      <c r="BX15" s="78"/>
-      <c r="BY15" s="78"/>
-      <c r="BZ15" s="78"/>
-      <c r="CA15" s="78"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="49"/>
+      <c r="AV15" s="49"/>
+      <c r="AW15" s="49"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="49"/>
+      <c r="AZ15" s="49"/>
+      <c r="BA15" s="49"/>
+      <c r="BB15" s="49"/>
+      <c r="BC15" s="49"/>
+      <c r="BD15" s="49"/>
+      <c r="BE15" s="49"/>
+      <c r="BF15" s="49"/>
+      <c r="BG15" s="49"/>
+      <c r="BH15" s="49"/>
+      <c r="BI15" s="49"/>
+      <c r="BJ15" s="49"/>
+      <c r="BK15" s="49"/>
+      <c r="BL15" s="49"/>
+      <c r="BM15" s="49"/>
+      <c r="BN15" s="49"/>
+      <c r="BO15" s="49"/>
+      <c r="BP15" s="49"/>
+      <c r="BQ15" s="49"/>
+      <c r="BR15" s="49"/>
+      <c r="BS15" s="49"/>
+      <c r="BT15" s="49"/>
+      <c r="BU15" s="49"/>
+      <c r="BV15" s="49"/>
+      <c r="BW15" s="49"/>
+      <c r="BX15" s="49"/>
+      <c r="BY15" s="49"/>
+      <c r="BZ15" s="49"/>
+      <c r="CA15" s="49"/>
       <c r="CB15" s="18"/>
       <c r="CC15" s="21"/>
       <c r="CS15" s="12"/>
@@ -3225,84 +3225,84 @@
     <row r="16" spans="1:97" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
-      <c r="D16" s="48" t="s">
-        <v>19</v>
+      <c r="D16" s="60" t="s">
+        <v>18</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="78"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="78"/>
-      <c r="AZ16" s="78"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="78"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="78"/>
-      <c r="BG16" s="78"/>
-      <c r="BH16" s="78"/>
-      <c r="BI16" s="78"/>
-      <c r="BJ16" s="78"/>
-      <c r="BK16" s="78"/>
-      <c r="BL16" s="78"/>
-      <c r="BM16" s="78"/>
-      <c r="BN16" s="78"/>
-      <c r="BO16" s="78"/>
-      <c r="BP16" s="78"/>
-      <c r="BQ16" s="78"/>
-      <c r="BR16" s="78"/>
-      <c r="BS16" s="78"/>
-      <c r="BT16" s="78"/>
-      <c r="BU16" s="78"/>
-      <c r="BV16" s="78"/>
-      <c r="BW16" s="78"/>
-      <c r="BX16" s="78"/>
-      <c r="BY16" s="78"/>
-      <c r="BZ16" s="78"/>
-      <c r="CA16" s="78"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="49"/>
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="49"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="49"/>
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="49"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="49"/>
+      <c r="AZ16" s="49"/>
+      <c r="BA16" s="49"/>
+      <c r="BB16" s="49"/>
+      <c r="BC16" s="49"/>
+      <c r="BD16" s="49"/>
+      <c r="BE16" s="49"/>
+      <c r="BF16" s="49"/>
+      <c r="BG16" s="49"/>
+      <c r="BH16" s="49"/>
+      <c r="BI16" s="49"/>
+      <c r="BJ16" s="49"/>
+      <c r="BK16" s="49"/>
+      <c r="BL16" s="49"/>
+      <c r="BM16" s="49"/>
+      <c r="BN16" s="49"/>
+      <c r="BO16" s="49"/>
+      <c r="BP16" s="49"/>
+      <c r="BQ16" s="49"/>
+      <c r="BR16" s="49"/>
+      <c r="BS16" s="49"/>
+      <c r="BT16" s="49"/>
+      <c r="BU16" s="49"/>
+      <c r="BV16" s="49"/>
+      <c r="BW16" s="49"/>
+      <c r="BX16" s="49"/>
+      <c r="BY16" s="49"/>
+      <c r="BZ16" s="49"/>
+      <c r="CA16" s="49"/>
       <c r="CB16" s="18"/>
       <c r="CC16" s="21"/>
       <c r="CS16" s="12"/>
@@ -3310,84 +3310,84 @@
     <row r="17" spans="1:97" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
-      <c r="D17" s="48" t="s">
-        <v>20</v>
+      <c r="D17" s="60" t="s">
+        <v>19</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="78"/>
-      <c r="AZ17" s="78"/>
-      <c r="BA17" s="78"/>
-      <c r="BB17" s="78"/>
-      <c r="BC17" s="78"/>
-      <c r="BD17" s="78"/>
-      <c r="BE17" s="78"/>
-      <c r="BF17" s="78"/>
-      <c r="BG17" s="78"/>
-      <c r="BH17" s="78"/>
-      <c r="BI17" s="78"/>
-      <c r="BJ17" s="78"/>
-      <c r="BK17" s="78"/>
-      <c r="BL17" s="78"/>
-      <c r="BM17" s="78"/>
-      <c r="BN17" s="78"/>
-      <c r="BO17" s="78"/>
-      <c r="BP17" s="78"/>
-      <c r="BQ17" s="78"/>
-      <c r="BR17" s="78"/>
-      <c r="BS17" s="78"/>
-      <c r="BT17" s="78"/>
-      <c r="BU17" s="78"/>
-      <c r="BV17" s="78"/>
-      <c r="BW17" s="78"/>
-      <c r="BX17" s="78"/>
-      <c r="BY17" s="78"/>
-      <c r="BZ17" s="78"/>
-      <c r="CA17" s="78"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="49"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="49"/>
+      <c r="AZ17" s="49"/>
+      <c r="BA17" s="49"/>
+      <c r="BB17" s="49"/>
+      <c r="BC17" s="49"/>
+      <c r="BD17" s="49"/>
+      <c r="BE17" s="49"/>
+      <c r="BF17" s="49"/>
+      <c r="BG17" s="49"/>
+      <c r="BH17" s="49"/>
+      <c r="BI17" s="49"/>
+      <c r="BJ17" s="49"/>
+      <c r="BK17" s="49"/>
+      <c r="BL17" s="49"/>
+      <c r="BM17" s="49"/>
+      <c r="BN17" s="49"/>
+      <c r="BO17" s="49"/>
+      <c r="BP17" s="49"/>
+      <c r="BQ17" s="49"/>
+      <c r="BR17" s="49"/>
+      <c r="BS17" s="49"/>
+      <c r="BT17" s="49"/>
+      <c r="BU17" s="49"/>
+      <c r="BV17" s="49"/>
+      <c r="BW17" s="49"/>
+      <c r="BX17" s="49"/>
+      <c r="BY17" s="49"/>
+      <c r="BZ17" s="49"/>
+      <c r="CA17" s="49"/>
       <c r="CB17" s="18"/>
       <c r="CC17" s="21"/>
       <c r="CS17" s="12"/>
@@ -3395,84 +3395,84 @@
     <row r="18" spans="1:97" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
-      <c r="D18" s="48" t="s">
-        <v>22</v>
+      <c r="D18" s="60" t="s">
+        <v>21</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="78"/>
-      <c r="AZ18" s="78"/>
-      <c r="BA18" s="78"/>
-      <c r="BB18" s="78"/>
-      <c r="BC18" s="78"/>
-      <c r="BD18" s="78"/>
-      <c r="BE18" s="78"/>
-      <c r="BF18" s="78"/>
-      <c r="BG18" s="78"/>
-      <c r="BH18" s="78"/>
-      <c r="BI18" s="78"/>
-      <c r="BJ18" s="78"/>
-      <c r="BK18" s="78"/>
-      <c r="BL18" s="78"/>
-      <c r="BM18" s="78"/>
-      <c r="BN18" s="78"/>
-      <c r="BO18" s="78"/>
-      <c r="BP18" s="78"/>
-      <c r="BQ18" s="78"/>
-      <c r="BR18" s="78"/>
-      <c r="BS18" s="78"/>
-      <c r="BT18" s="78"/>
-      <c r="BU18" s="78"/>
-      <c r="BV18" s="78"/>
-      <c r="BW18" s="78"/>
-      <c r="BX18" s="78"/>
-      <c r="BY18" s="78"/>
-      <c r="BZ18" s="78"/>
-      <c r="CA18" s="78"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="49"/>
+      <c r="BA18" s="49"/>
+      <c r="BB18" s="49"/>
+      <c r="BC18" s="49"/>
+      <c r="BD18" s="49"/>
+      <c r="BE18" s="49"/>
+      <c r="BF18" s="49"/>
+      <c r="BG18" s="49"/>
+      <c r="BH18" s="49"/>
+      <c r="BI18" s="49"/>
+      <c r="BJ18" s="49"/>
+      <c r="BK18" s="49"/>
+      <c r="BL18" s="49"/>
+      <c r="BM18" s="49"/>
+      <c r="BN18" s="49"/>
+      <c r="BO18" s="49"/>
+      <c r="BP18" s="49"/>
+      <c r="BQ18" s="49"/>
+      <c r="BR18" s="49"/>
+      <c r="BS18" s="49"/>
+      <c r="BT18" s="49"/>
+      <c r="BU18" s="49"/>
+      <c r="BV18" s="49"/>
+      <c r="BW18" s="49"/>
+      <c r="BX18" s="49"/>
+      <c r="BY18" s="49"/>
+      <c r="BZ18" s="49"/>
+      <c r="CA18" s="49"/>
       <c r="CB18" s="18"/>
       <c r="CC18" s="21"/>
       <c r="CS18" s="15"/>
@@ -3480,84 +3480,84 @@
     <row r="19" spans="1:97" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
-      <c r="D19" s="48" t="s">
-        <v>26</v>
+      <c r="D19" s="60" t="s">
+        <v>25</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="78"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="78"/>
-      <c r="AS19" s="78"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="78"/>
-      <c r="BA19" s="78"/>
-      <c r="BB19" s="78"/>
-      <c r="BC19" s="78"/>
-      <c r="BD19" s="78"/>
-      <c r="BE19" s="78"/>
-      <c r="BF19" s="78"/>
-      <c r="BG19" s="78"/>
-      <c r="BH19" s="78"/>
-      <c r="BI19" s="78"/>
-      <c r="BJ19" s="78"/>
-      <c r="BK19" s="78"/>
-      <c r="BL19" s="78"/>
-      <c r="BM19" s="78"/>
-      <c r="BN19" s="78"/>
-      <c r="BO19" s="78"/>
-      <c r="BP19" s="78"/>
-      <c r="BQ19" s="78"/>
-      <c r="BR19" s="78"/>
-      <c r="BS19" s="78"/>
-      <c r="BT19" s="78"/>
-      <c r="BU19" s="78"/>
-      <c r="BV19" s="78"/>
-      <c r="BW19" s="78"/>
-      <c r="BX19" s="78"/>
-      <c r="BY19" s="78"/>
-      <c r="BZ19" s="78"/>
-      <c r="CA19" s="78"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="49"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="49"/>
+      <c r="AZ19" s="49"/>
+      <c r="BA19" s="49"/>
+      <c r="BB19" s="49"/>
+      <c r="BC19" s="49"/>
+      <c r="BD19" s="49"/>
+      <c r="BE19" s="49"/>
+      <c r="BF19" s="49"/>
+      <c r="BG19" s="49"/>
+      <c r="BH19" s="49"/>
+      <c r="BI19" s="49"/>
+      <c r="BJ19" s="49"/>
+      <c r="BK19" s="49"/>
+      <c r="BL19" s="49"/>
+      <c r="BM19" s="49"/>
+      <c r="BN19" s="49"/>
+      <c r="BO19" s="49"/>
+      <c r="BP19" s="49"/>
+      <c r="BQ19" s="49"/>
+      <c r="BR19" s="49"/>
+      <c r="BS19" s="49"/>
+      <c r="BT19" s="49"/>
+      <c r="BU19" s="49"/>
+      <c r="BV19" s="49"/>
+      <c r="BW19" s="49"/>
+      <c r="BX19" s="49"/>
+      <c r="BY19" s="49"/>
+      <c r="BZ19" s="49"/>
+      <c r="CA19" s="49"/>
       <c r="CB19" s="18"/>
       <c r="CC19" s="21"/>
       <c r="CS19" s="12"/>
@@ -3565,84 +3565,84 @@
     <row r="20" spans="1:97" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
-      <c r="D20" s="48" t="s">
-        <v>25</v>
+      <c r="D20" s="60" t="s">
+        <v>24</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="78"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="78"/>
-      <c r="AZ20" s="78"/>
-      <c r="BA20" s="78"/>
-      <c r="BB20" s="78"/>
-      <c r="BC20" s="78"/>
-      <c r="BD20" s="78"/>
-      <c r="BE20" s="78"/>
-      <c r="BF20" s="78"/>
-      <c r="BG20" s="78"/>
-      <c r="BH20" s="78"/>
-      <c r="BI20" s="78"/>
-      <c r="BJ20" s="78"/>
-      <c r="BK20" s="78"/>
-      <c r="BL20" s="78"/>
-      <c r="BM20" s="78"/>
-      <c r="BN20" s="78"/>
-      <c r="BO20" s="78"/>
-      <c r="BP20" s="78"/>
-      <c r="BQ20" s="78"/>
-      <c r="BR20" s="78"/>
-      <c r="BS20" s="78"/>
-      <c r="BT20" s="78"/>
-      <c r="BU20" s="78"/>
-      <c r="BV20" s="78"/>
-      <c r="BW20" s="78"/>
-      <c r="BX20" s="78"/>
-      <c r="BY20" s="78"/>
-      <c r="BZ20" s="78"/>
-      <c r="CA20" s="78"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="49"/>
+      <c r="AZ20" s="49"/>
+      <c r="BA20" s="49"/>
+      <c r="BB20" s="49"/>
+      <c r="BC20" s="49"/>
+      <c r="BD20" s="49"/>
+      <c r="BE20" s="49"/>
+      <c r="BF20" s="49"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="49"/>
+      <c r="BI20" s="49"/>
+      <c r="BJ20" s="49"/>
+      <c r="BK20" s="49"/>
+      <c r="BL20" s="49"/>
+      <c r="BM20" s="49"/>
+      <c r="BN20" s="49"/>
+      <c r="BO20" s="49"/>
+      <c r="BP20" s="49"/>
+      <c r="BQ20" s="49"/>
+      <c r="BR20" s="49"/>
+      <c r="BS20" s="49"/>
+      <c r="BT20" s="49"/>
+      <c r="BU20" s="49"/>
+      <c r="BV20" s="49"/>
+      <c r="BW20" s="49"/>
+      <c r="BX20" s="49"/>
+      <c r="BY20" s="49"/>
+      <c r="BZ20" s="49"/>
+      <c r="CA20" s="49"/>
       <c r="CB20" s="18"/>
       <c r="CC20" s="21"/>
       <c r="CS20" s="15"/>
@@ -3650,84 +3650,84 @@
     <row r="21" spans="1:97" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="16"/>
-      <c r="D21" s="48" t="s">
-        <v>24</v>
+      <c r="D21" s="60" t="s">
+        <v>23</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="78"/>
-      <c r="AZ21" s="78"/>
-      <c r="BA21" s="78"/>
-      <c r="BB21" s="78"/>
-      <c r="BC21" s="78"/>
-      <c r="BD21" s="78"/>
-      <c r="BE21" s="78"/>
-      <c r="BF21" s="78"/>
-      <c r="BG21" s="78"/>
-      <c r="BH21" s="78"/>
-      <c r="BI21" s="78"/>
-      <c r="BJ21" s="78"/>
-      <c r="BK21" s="78"/>
-      <c r="BL21" s="78"/>
-      <c r="BM21" s="78"/>
-      <c r="BN21" s="78"/>
-      <c r="BO21" s="78"/>
-      <c r="BP21" s="78"/>
-      <c r="BQ21" s="78"/>
-      <c r="BR21" s="78"/>
-      <c r="BS21" s="78"/>
-      <c r="BT21" s="78"/>
-      <c r="BU21" s="78"/>
-      <c r="BV21" s="78"/>
-      <c r="BW21" s="78"/>
-      <c r="BX21" s="78"/>
-      <c r="BY21" s="78"/>
-      <c r="BZ21" s="78"/>
-      <c r="CA21" s="78"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
+      <c r="AV21" s="49"/>
+      <c r="AW21" s="49"/>
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="49"/>
+      <c r="BA21" s="49"/>
+      <c r="BB21" s="49"/>
+      <c r="BC21" s="49"/>
+      <c r="BD21" s="49"/>
+      <c r="BE21" s="49"/>
+      <c r="BF21" s="49"/>
+      <c r="BG21" s="49"/>
+      <c r="BH21" s="49"/>
+      <c r="BI21" s="49"/>
+      <c r="BJ21" s="49"/>
+      <c r="BK21" s="49"/>
+      <c r="BL21" s="49"/>
+      <c r="BM21" s="49"/>
+      <c r="BN21" s="49"/>
+      <c r="BO21" s="49"/>
+      <c r="BP21" s="49"/>
+      <c r="BQ21" s="49"/>
+      <c r="BR21" s="49"/>
+      <c r="BS21" s="49"/>
+      <c r="BT21" s="49"/>
+      <c r="BU21" s="49"/>
+      <c r="BV21" s="49"/>
+      <c r="BW21" s="49"/>
+      <c r="BX21" s="49"/>
+      <c r="BY21" s="49"/>
+      <c r="BZ21" s="49"/>
+      <c r="CA21" s="49"/>
       <c r="CB21" s="18"/>
       <c r="CC21" s="21"/>
       <c r="CS21" s="15"/>
@@ -3735,84 +3735,84 @@
     <row r="22" spans="1:97" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
-      <c r="D22" s="48" t="s">
-        <v>23</v>
+      <c r="D22" s="60" t="s">
+        <v>22</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="78"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="78"/>
-      <c r="BD22" s="78"/>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="78"/>
-      <c r="BG22" s="78"/>
-      <c r="BH22" s="78"/>
-      <c r="BI22" s="78"/>
-      <c r="BJ22" s="78"/>
-      <c r="BK22" s="78"/>
-      <c r="BL22" s="78"/>
-      <c r="BM22" s="78"/>
-      <c r="BN22" s="78"/>
-      <c r="BO22" s="78"/>
-      <c r="BP22" s="78"/>
-      <c r="BQ22" s="78"/>
-      <c r="BR22" s="78"/>
-      <c r="BS22" s="78"/>
-      <c r="BT22" s="78"/>
-      <c r="BU22" s="78"/>
-      <c r="BV22" s="78"/>
-      <c r="BW22" s="78"/>
-      <c r="BX22" s="78"/>
-      <c r="BY22" s="78"/>
-      <c r="BZ22" s="78"/>
-      <c r="CA22" s="78"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="49"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="49"/>
+      <c r="BA22" s="49"/>
+      <c r="BB22" s="49"/>
+      <c r="BC22" s="49"/>
+      <c r="BD22" s="49"/>
+      <c r="BE22" s="49"/>
+      <c r="BF22" s="49"/>
+      <c r="BG22" s="49"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="49"/>
+      <c r="BJ22" s="49"/>
+      <c r="BK22" s="49"/>
+      <c r="BL22" s="49"/>
+      <c r="BM22" s="49"/>
+      <c r="BN22" s="49"/>
+      <c r="BO22" s="49"/>
+      <c r="BP22" s="49"/>
+      <c r="BQ22" s="49"/>
+      <c r="BR22" s="49"/>
+      <c r="BS22" s="49"/>
+      <c r="BT22" s="49"/>
+      <c r="BU22" s="49"/>
+      <c r="BV22" s="49"/>
+      <c r="BW22" s="49"/>
+      <c r="BX22" s="49"/>
+      <c r="BY22" s="49"/>
+      <c r="BZ22" s="49"/>
+      <c r="CA22" s="49"/>
       <c r="CB22" s="18"/>
       <c r="CC22" s="21"/>
       <c r="CS22" s="15"/>
@@ -3989,82 +3989,82 @@
       <c r="A25" s="18"/>
       <c r="B25" s="20"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="80"/>
-      <c r="AF25" s="80"/>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="80"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="80"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="80"/>
-      <c r="AN25" s="80"/>
-      <c r="AO25" s="80"/>
-      <c r="AP25" s="80"/>
-      <c r="AQ25" s="80"/>
-      <c r="AR25" s="80"/>
-      <c r="AS25" s="80"/>
-      <c r="AT25" s="80"/>
-      <c r="AU25" s="80"/>
-      <c r="AV25" s="80"/>
-      <c r="AW25" s="80"/>
-      <c r="AX25" s="80"/>
-      <c r="AY25" s="80"/>
-      <c r="AZ25" s="80"/>
-      <c r="BA25" s="80"/>
-      <c r="BB25" s="80"/>
-      <c r="BC25" s="80"/>
-      <c r="BD25" s="80"/>
-      <c r="BE25" s="80"/>
-      <c r="BF25" s="80"/>
-      <c r="BG25" s="80"/>
-      <c r="BH25" s="80"/>
-      <c r="BI25" s="80"/>
-      <c r="BJ25" s="80"/>
-      <c r="BK25" s="80"/>
-      <c r="BL25" s="80"/>
-      <c r="BM25" s="80"/>
-      <c r="BN25" s="80"/>
-      <c r="BO25" s="80"/>
-      <c r="BP25" s="80"/>
-      <c r="BQ25" s="80"/>
-      <c r="BR25" s="80"/>
-      <c r="BS25" s="80"/>
-      <c r="BT25" s="80"/>
-      <c r="BU25" s="80"/>
-      <c r="BV25" s="80"/>
-      <c r="BW25" s="80"/>
-      <c r="BX25" s="80"/>
-      <c r="BY25" s="80"/>
-      <c r="BZ25" s="80"/>
-      <c r="CA25" s="81"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="31"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="31"/>
+      <c r="AW25" s="31"/>
+      <c r="AX25" s="31"/>
+      <c r="AY25" s="31"/>
+      <c r="AZ25" s="31"/>
+      <c r="BA25" s="31"/>
+      <c r="BB25" s="31"/>
+      <c r="BC25" s="31"/>
+      <c r="BD25" s="31"/>
+      <c r="BE25" s="31"/>
+      <c r="BF25" s="31"/>
+      <c r="BG25" s="31"/>
+      <c r="BH25" s="31"/>
+      <c r="BI25" s="31"/>
+      <c r="BJ25" s="31"/>
+      <c r="BK25" s="31"/>
+      <c r="BL25" s="31"/>
+      <c r="BM25" s="31"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="31"/>
+      <c r="BQ25" s="31"/>
+      <c r="BR25" s="31"/>
+      <c r="BS25" s="31"/>
+      <c r="BT25" s="31"/>
+      <c r="BU25" s="31"/>
+      <c r="BV25" s="31"/>
+      <c r="BW25" s="31"/>
+      <c r="BX25" s="31"/>
+      <c r="BY25" s="31"/>
+      <c r="BZ25" s="31"/>
+      <c r="CA25" s="32"/>
       <c r="CB25" s="18"/>
       <c r="CC25" s="21"/>
     </row>
@@ -4072,82 +4072,82 @@
       <c r="A26" s="18"/>
       <c r="B26" s="20"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="83"/>
-      <c r="AE26" s="83"/>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="83"/>
-      <c r="AH26" s="83"/>
-      <c r="AI26" s="83"/>
-      <c r="AJ26" s="83"/>
-      <c r="AK26" s="83"/>
-      <c r="AL26" s="83"/>
-      <c r="AM26" s="83"/>
-      <c r="AN26" s="83"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="83"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83"/>
-      <c r="AS26" s="83"/>
-      <c r="AT26" s="83"/>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="83"/>
-      <c r="BA26" s="83"/>
-      <c r="BB26" s="83"/>
-      <c r="BC26" s="83"/>
-      <c r="BD26" s="83"/>
-      <c r="BE26" s="83"/>
-      <c r="BF26" s="83"/>
-      <c r="BG26" s="83"/>
-      <c r="BH26" s="83"/>
-      <c r="BI26" s="83"/>
-      <c r="BJ26" s="83"/>
-      <c r="BK26" s="83"/>
-      <c r="BL26" s="83"/>
-      <c r="BM26" s="83"/>
-      <c r="BN26" s="83"/>
-      <c r="BO26" s="83"/>
-      <c r="BP26" s="83"/>
-      <c r="BQ26" s="83"/>
-      <c r="BR26" s="83"/>
-      <c r="BS26" s="83"/>
-      <c r="BT26" s="83"/>
-      <c r="BU26" s="83"/>
-      <c r="BV26" s="83"/>
-      <c r="BW26" s="83"/>
-      <c r="BX26" s="83"/>
-      <c r="BY26" s="83"/>
-      <c r="BZ26" s="83"/>
-      <c r="CA26" s="84"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="34"/>
+      <c r="AX26" s="34"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="34"/>
+      <c r="BA26" s="34"/>
+      <c r="BB26" s="34"/>
+      <c r="BC26" s="34"/>
+      <c r="BD26" s="34"/>
+      <c r="BE26" s="34"/>
+      <c r="BF26" s="34"/>
+      <c r="BG26" s="34"/>
+      <c r="BH26" s="34"/>
+      <c r="BI26" s="34"/>
+      <c r="BJ26" s="34"/>
+      <c r="BK26" s="34"/>
+      <c r="BL26" s="34"/>
+      <c r="BM26" s="34"/>
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="34"/>
+      <c r="BR26" s="34"/>
+      <c r="BS26" s="34"/>
+      <c r="BT26" s="34"/>
+      <c r="BU26" s="34"/>
+      <c r="BV26" s="34"/>
+      <c r="BW26" s="34"/>
+      <c r="BX26" s="34"/>
+      <c r="BY26" s="34"/>
+      <c r="BZ26" s="34"/>
+      <c r="CA26" s="35"/>
       <c r="CB26" s="18"/>
       <c r="CC26" s="21"/>
     </row>
@@ -4155,82 +4155,82 @@
       <c r="A27" s="18"/>
       <c r="B27" s="20"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="83"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="83"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="83"/>
-      <c r="AO27" s="83"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="83"/>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="83"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="83"/>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="83"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="83"/>
-      <c r="BE27" s="83"/>
-      <c r="BF27" s="83"/>
-      <c r="BG27" s="83"/>
-      <c r="BH27" s="83"/>
-      <c r="BI27" s="83"/>
-      <c r="BJ27" s="83"/>
-      <c r="BK27" s="83"/>
-      <c r="BL27" s="83"/>
-      <c r="BM27" s="83"/>
-      <c r="BN27" s="83"/>
-      <c r="BO27" s="83"/>
-      <c r="BP27" s="83"/>
-      <c r="BQ27" s="83"/>
-      <c r="BR27" s="83"/>
-      <c r="BS27" s="83"/>
-      <c r="BT27" s="83"/>
-      <c r="BU27" s="83"/>
-      <c r="BV27" s="83"/>
-      <c r="BW27" s="83"/>
-      <c r="BX27" s="83"/>
-      <c r="BY27" s="83"/>
-      <c r="BZ27" s="83"/>
-      <c r="CA27" s="84"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="34"/>
+      <c r="AW27" s="34"/>
+      <c r="AX27" s="34"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="34"/>
+      <c r="BA27" s="34"/>
+      <c r="BB27" s="34"/>
+      <c r="BC27" s="34"/>
+      <c r="BD27" s="34"/>
+      <c r="BE27" s="34"/>
+      <c r="BF27" s="34"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="34"/>
+      <c r="BI27" s="34"/>
+      <c r="BJ27" s="34"/>
+      <c r="BK27" s="34"/>
+      <c r="BL27" s="34"/>
+      <c r="BM27" s="34"/>
+      <c r="BN27" s="34"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="34"/>
+      <c r="BQ27" s="34"/>
+      <c r="BR27" s="34"/>
+      <c r="BS27" s="34"/>
+      <c r="BT27" s="34"/>
+      <c r="BU27" s="34"/>
+      <c r="BV27" s="34"/>
+      <c r="BW27" s="34"/>
+      <c r="BX27" s="34"/>
+      <c r="BY27" s="34"/>
+      <c r="BZ27" s="34"/>
+      <c r="CA27" s="35"/>
       <c r="CB27" s="18"/>
       <c r="CC27" s="21"/>
     </row>
@@ -4238,82 +4238,82 @@
       <c r="A28" s="18"/>
       <c r="B28" s="20"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="83"/>
-      <c r="AH28" s="83"/>
-      <c r="AI28" s="83"/>
-      <c r="AJ28" s="83"/>
-      <c r="AK28" s="83"/>
-      <c r="AL28" s="83"/>
-      <c r="AM28" s="83"/>
-      <c r="AN28" s="83"/>
-      <c r="AO28" s="83"/>
-      <c r="AP28" s="83"/>
-      <c r="AQ28" s="83"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="83"/>
-      <c r="AT28" s="83"/>
-      <c r="AU28" s="83"/>
-      <c r="AV28" s="83"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="83"/>
-      <c r="AY28" s="83"/>
-      <c r="AZ28" s="83"/>
-      <c r="BA28" s="83"/>
-      <c r="BB28" s="83"/>
-      <c r="BC28" s="83"/>
-      <c r="BD28" s="83"/>
-      <c r="BE28" s="83"/>
-      <c r="BF28" s="83"/>
-      <c r="BG28" s="83"/>
-      <c r="BH28" s="83"/>
-      <c r="BI28" s="83"/>
-      <c r="BJ28" s="83"/>
-      <c r="BK28" s="83"/>
-      <c r="BL28" s="83"/>
-      <c r="BM28" s="83"/>
-      <c r="BN28" s="83"/>
-      <c r="BO28" s="83"/>
-      <c r="BP28" s="83"/>
-      <c r="BQ28" s="83"/>
-      <c r="BR28" s="83"/>
-      <c r="BS28" s="83"/>
-      <c r="BT28" s="83"/>
-      <c r="BU28" s="83"/>
-      <c r="BV28" s="83"/>
-      <c r="BW28" s="83"/>
-      <c r="BX28" s="83"/>
-      <c r="BY28" s="83"/>
-      <c r="BZ28" s="83"/>
-      <c r="CA28" s="84"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="34"/>
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="34"/>
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="34"/>
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="34"/>
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="34"/>
+      <c r="BJ28" s="34"/>
+      <c r="BK28" s="34"/>
+      <c r="BL28" s="34"/>
+      <c r="BM28" s="34"/>
+      <c r="BN28" s="34"/>
+      <c r="BO28" s="34"/>
+      <c r="BP28" s="34"/>
+      <c r="BQ28" s="34"/>
+      <c r="BR28" s="34"/>
+      <c r="BS28" s="34"/>
+      <c r="BT28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="34"/>
+      <c r="BW28" s="34"/>
+      <c r="BX28" s="34"/>
+      <c r="BY28" s="34"/>
+      <c r="BZ28" s="34"/>
+      <c r="CA28" s="35"/>
       <c r="CB28" s="18"/>
       <c r="CC28" s="21"/>
     </row>
@@ -4321,82 +4321,82 @@
       <c r="A29" s="18"/>
       <c r="B29" s="20"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="86"/>
-      <c r="AJ29" s="86"/>
-      <c r="AK29" s="86"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="86"/>
-      <c r="AN29" s="86"/>
-      <c r="AO29" s="86"/>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="86"/>
-      <c r="AS29" s="86"/>
-      <c r="AT29" s="86"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
-      <c r="AX29" s="86"/>
-      <c r="AY29" s="86"/>
-      <c r="AZ29" s="86"/>
-      <c r="BA29" s="86"/>
-      <c r="BB29" s="86"/>
-      <c r="BC29" s="86"/>
-      <c r="BD29" s="86"/>
-      <c r="BE29" s="86"/>
-      <c r="BF29" s="86"/>
-      <c r="BG29" s="86"/>
-      <c r="BH29" s="86"/>
-      <c r="BI29" s="86"/>
-      <c r="BJ29" s="86"/>
-      <c r="BK29" s="86"/>
-      <c r="BL29" s="86"/>
-      <c r="BM29" s="86"/>
-      <c r="BN29" s="86"/>
-      <c r="BO29" s="86"/>
-      <c r="BP29" s="86"/>
-      <c r="BQ29" s="86"/>
-      <c r="BR29" s="86"/>
-      <c r="BS29" s="86"/>
-      <c r="BT29" s="86"/>
-      <c r="BU29" s="86"/>
-      <c r="BV29" s="86"/>
-      <c r="BW29" s="86"/>
-      <c r="BX29" s="86"/>
-      <c r="BY29" s="86"/>
-      <c r="BZ29" s="86"/>
-      <c r="CA29" s="87"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="37"/>
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="37"/>
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="37"/>
+      <c r="BU29" s="37"/>
+      <c r="BV29" s="37"/>
+      <c r="BW29" s="37"/>
+      <c r="BX29" s="37"/>
+      <c r="BY29" s="37"/>
+      <c r="BZ29" s="37"/>
+      <c r="CA29" s="38"/>
       <c r="CB29" s="18"/>
       <c r="CC29" s="21"/>
     </row>
@@ -4566,102 +4566,102 @@
     </row>
     <row r="32" spans="1:97" ht="3" customHeight="1"/>
     <row r="33" spans="2:81" s="7" customFormat="1" ht="18" customHeight="1">
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="92" t="s">
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="92" t="s">
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="47" t="s">
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="AY33" s="47"/>
-      <c r="AZ33" s="47"/>
-      <c r="BA33" s="47"/>
-      <c r="BB33" s="47"/>
-      <c r="BC33" s="47"/>
-      <c r="BD33" s="47"/>
-      <c r="BE33" s="47"/>
-      <c r="BF33" s="41" t="s">
-        <v>28</v>
+      <c r="AY33" s="94"/>
+      <c r="AZ33" s="94"/>
+      <c r="BA33" s="94"/>
+      <c r="BB33" s="94"/>
+      <c r="BC33" s="94"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="94"/>
+      <c r="BF33" s="52" t="s">
+        <v>27</v>
       </c>
-      <c r="BG33" s="41"/>
-      <c r="BH33" s="41"/>
-      <c r="BI33" s="41"/>
-      <c r="BJ33" s="41"/>
-      <c r="BK33" s="41"/>
-      <c r="BL33" s="41"/>
-      <c r="BM33" s="41"/>
-      <c r="BN33" s="41"/>
-      <c r="BO33" s="41"/>
-      <c r="BP33" s="42"/>
-      <c r="BQ33" s="92" t="s">
+      <c r="BG33" s="52"/>
+      <c r="BH33" s="52"/>
+      <c r="BI33" s="52"/>
+      <c r="BJ33" s="52"/>
+      <c r="BK33" s="52"/>
+      <c r="BL33" s="52"/>
+      <c r="BM33" s="52"/>
+      <c r="BN33" s="52"/>
+      <c r="BO33" s="52"/>
+      <c r="BP33" s="51"/>
+      <c r="BQ33" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="BR33" s="93"/>
-      <c r="BS33" s="93"/>
-      <c r="BT33" s="93"/>
-      <c r="BU33" s="93"/>
-      <c r="BV33" s="94"/>
-      <c r="BW33" s="47" t="s">
-        <v>27</v>
+      <c r="BR33" s="92"/>
+      <c r="BS33" s="92"/>
+      <c r="BT33" s="92"/>
+      <c r="BU33" s="92"/>
+      <c r="BV33" s="93"/>
+      <c r="BW33" s="94" t="s">
+        <v>26</v>
       </c>
-      <c r="BX33" s="47"/>
-      <c r="BY33" s="47"/>
-      <c r="BZ33" s="47"/>
-      <c r="CA33" s="47"/>
-      <c r="CB33" s="47"/>
-      <c r="CC33" s="47"/>
+      <c r="BX33" s="94"/>
+      <c r="BY33" s="94"/>
+      <c r="BZ33" s="94"/>
+      <c r="CA33" s="94"/>
+      <c r="CB33" s="94"/>
+      <c r="CC33" s="94"/>
     </row>
     <row r="34" spans="2:81" s="8" customFormat="1">
       <c r="D34" s="9"/>
@@ -5052,95 +5052,106 @@
       <c r="CA38" s="11"/>
     </row>
     <row r="41" spans="2:81">
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
-      <c r="AE41" s="30"/>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="30"/>
-      <c r="AH41" s="30"/>
-      <c r="AI41" s="30"/>
-      <c r="AJ41" s="30"/>
-      <c r="AK41" s="30"/>
-      <c r="AL41" s="30"/>
-      <c r="AM41" s="30"/>
-      <c r="AN41" s="30"/>
-      <c r="AO41" s="30"/>
-      <c r="AP41" s="30"/>
-      <c r="AQ41" s="30"/>
-      <c r="AR41" s="30"/>
-      <c r="AS41" s="30"/>
-      <c r="AT41" s="30"/>
-      <c r="AU41" s="30"/>
-      <c r="AV41" s="30"/>
-      <c r="AW41" s="30"/>
-      <c r="AX41" s="30"/>
-      <c r="AY41" s="30"/>
-      <c r="AZ41" s="30"/>
-      <c r="BA41" s="30"/>
-      <c r="BB41" s="30"/>
-      <c r="BC41" s="30"/>
-      <c r="BD41" s="30"/>
-      <c r="BE41" s="30"/>
-      <c r="BF41" s="30"/>
-      <c r="BG41" s="30"/>
-      <c r="BH41" s="30"/>
-      <c r="BI41" s="30"/>
-      <c r="BJ41" s="30"/>
-      <c r="BK41" s="30"/>
-      <c r="BL41" s="30"/>
-      <c r="BM41" s="30"/>
-      <c r="BN41" s="30"/>
-      <c r="BO41" s="30"/>
-      <c r="BP41" s="30"/>
-      <c r="BQ41" s="30"/>
-      <c r="BR41" s="30"/>
-      <c r="BS41" s="30"/>
-      <c r="BT41" s="30"/>
-      <c r="BU41" s="30"/>
-      <c r="BV41" s="30"/>
-      <c r="BW41" s="30"/>
-      <c r="BX41" s="30"/>
-      <c r="BY41" s="30"/>
-      <c r="BZ41" s="30"/>
-      <c r="CA41" s="30"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="83"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="83"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="83"/>
+      <c r="AE41" s="83"/>
+      <c r="AF41" s="83"/>
+      <c r="AG41" s="83"/>
+      <c r="AH41" s="83"/>
+      <c r="AI41" s="83"/>
+      <c r="AJ41" s="83"/>
+      <c r="AK41" s="83"/>
+      <c r="AL41" s="83"/>
+      <c r="AM41" s="83"/>
+      <c r="AN41" s="83"/>
+      <c r="AO41" s="83"/>
+      <c r="AP41" s="83"/>
+      <c r="AQ41" s="83"/>
+      <c r="AR41" s="83"/>
+      <c r="AS41" s="83"/>
+      <c r="AT41" s="83"/>
+      <c r="AU41" s="83"/>
+      <c r="AV41" s="83"/>
+      <c r="AW41" s="83"/>
+      <c r="AX41" s="83"/>
+      <c r="AY41" s="83"/>
+      <c r="AZ41" s="83"/>
+      <c r="BA41" s="83"/>
+      <c r="BB41" s="83"/>
+      <c r="BC41" s="83"/>
+      <c r="BD41" s="83"/>
+      <c r="BE41" s="83"/>
+      <c r="BF41" s="83"/>
+      <c r="BG41" s="83"/>
+      <c r="BH41" s="83"/>
+      <c r="BI41" s="83"/>
+      <c r="BJ41" s="83"/>
+      <c r="BK41" s="83"/>
+      <c r="BL41" s="83"/>
+      <c r="BM41" s="83"/>
+      <c r="BN41" s="83"/>
+      <c r="BO41" s="83"/>
+      <c r="BP41" s="83"/>
+      <c r="BQ41" s="83"/>
+      <c r="BR41" s="83"/>
+      <c r="BS41" s="83"/>
+      <c r="BT41" s="83"/>
+      <c r="BU41" s="83"/>
+      <c r="BV41" s="83"/>
+      <c r="BW41" s="83"/>
+      <c r="BX41" s="83"/>
+      <c r="BY41" s="83"/>
+      <c r="BZ41" s="83"/>
+      <c r="CA41" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D25:CA29"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AZ8"/>
-    <mergeCell ref="B9:W9"/>
-    <mergeCell ref="X9:AG9"/>
-    <mergeCell ref="O18:CA18"/>
-    <mergeCell ref="O19:CA19"/>
-    <mergeCell ref="O20:CA20"/>
-    <mergeCell ref="O21:CA21"/>
-    <mergeCell ref="O22:CA22"/>
+    <mergeCell ref="D41:CA41"/>
+    <mergeCell ref="B7:W7"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B10:W10"/>
+    <mergeCell ref="X10:AG10"/>
+    <mergeCell ref="BF33:BP33"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="BQ33:BV33"/>
+    <mergeCell ref="AX33:BE33"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D15:N15"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="AH9:CC9"/>
+    <mergeCell ref="BW33:CC33"/>
+    <mergeCell ref="B1:AU5"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AH7:AZ7"/>
+    <mergeCell ref="AV1:CC5"/>
+    <mergeCell ref="BA7:CC7"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:L33"/>
     <mergeCell ref="M33:AG33"/>
@@ -5156,27 +5167,16 @@
     <mergeCell ref="O15:CA15"/>
     <mergeCell ref="O16:CA16"/>
     <mergeCell ref="O17:CA17"/>
-    <mergeCell ref="B1:AU5"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="AH7:AZ7"/>
-    <mergeCell ref="AV1:CC5"/>
-    <mergeCell ref="BA7:CC7"/>
-    <mergeCell ref="D41:CA41"/>
-    <mergeCell ref="B7:W7"/>
-    <mergeCell ref="B8:W8"/>
-    <mergeCell ref="B10:W10"/>
-    <mergeCell ref="X10:AG10"/>
-    <mergeCell ref="BF33:BP33"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="BQ33:BV33"/>
-    <mergeCell ref="AX33:BE33"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="D15:N15"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="AH9:CC9"/>
-    <mergeCell ref="BW33:CC33"/>
+    <mergeCell ref="D25:CA29"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AZ8"/>
+    <mergeCell ref="B9:W9"/>
+    <mergeCell ref="X9:AG9"/>
+    <mergeCell ref="O18:CA18"/>
+    <mergeCell ref="O19:CA19"/>
+    <mergeCell ref="O20:CA20"/>
+    <mergeCell ref="O21:CA21"/>
+    <mergeCell ref="O22:CA22"/>
   </mergeCells>
   <phoneticPr fontId="21"/>
   <dataValidations count="1">

--- a/template/ExcelTemplate_A.xlsx
+++ b/template/ExcelTemplate_A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonWorkspace\CVMaker\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -338,7 +338,7 @@
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>株式会社クシムソフト
+    <t>株式会社ネクスソフト
 東京都港区南青山5-11-9
 レキシントン青山 3 階</t>
     <phoneticPr fontId="20"/>
@@ -1409,6 +1409,165 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,36 +1589,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1467,138 +1599,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.375" defaultRowHeight="13.5"/>
@@ -2029,763 +2029,763 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="13.5" customHeight="1">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="62" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="63"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="63"/>
-      <c r="BQ1" s="63"/>
-      <c r="BR1" s="63"/>
-      <c r="BS1" s="63"/>
-      <c r="BT1" s="63"/>
-      <c r="BU1" s="63"/>
-      <c r="BV1" s="63"/>
-      <c r="BW1" s="63"/>
-      <c r="BX1" s="63"/>
-      <c r="BY1" s="63"/>
-      <c r="BZ1" s="63"/>
-      <c r="CA1" s="63"/>
-      <c r="CB1" s="63"/>
-      <c r="CC1" s="64"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BS1" s="73"/>
+      <c r="BT1" s="73"/>
+      <c r="BU1" s="73"/>
+      <c r="BV1" s="73"/>
+      <c r="BW1" s="73"/>
+      <c r="BX1" s="73"/>
+      <c r="BY1" s="73"/>
+      <c r="BZ1" s="73"/>
+      <c r="CA1" s="73"/>
+      <c r="CB1" s="73"/>
+      <c r="CC1" s="74"/>
     </row>
     <row r="2" spans="1:97" ht="13.5" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="66"/>
-      <c r="BM2" s="66"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="66"/>
-      <c r="BP2" s="66"/>
-      <c r="BQ2" s="66"/>
-      <c r="BR2" s="66"/>
-      <c r="BS2" s="66"/>
-      <c r="BT2" s="66"/>
-      <c r="BU2" s="66"/>
-      <c r="BV2" s="66"/>
-      <c r="BW2" s="66"/>
-      <c r="BX2" s="66"/>
-      <c r="BY2" s="66"/>
-      <c r="BZ2" s="66"/>
-      <c r="CA2" s="66"/>
-      <c r="CB2" s="66"/>
-      <c r="CC2" s="67"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="76"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="76"/>
+      <c r="BR2" s="76"/>
+      <c r="BS2" s="76"/>
+      <c r="BT2" s="76"/>
+      <c r="BU2" s="76"/>
+      <c r="BV2" s="76"/>
+      <c r="BW2" s="76"/>
+      <c r="BX2" s="76"/>
+      <c r="BY2" s="76"/>
+      <c r="BZ2" s="76"/>
+      <c r="CA2" s="76"/>
+      <c r="CB2" s="76"/>
+      <c r="CC2" s="77"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" customHeight="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="66"/>
-      <c r="BT3" s="66"/>
-      <c r="BU3" s="66"/>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="76"/>
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="76"/>
+      <c r="BS3" s="76"/>
+      <c r="BT3" s="76"/>
+      <c r="BU3" s="76"/>
+      <c r="BV3" s="76"/>
+      <c r="BW3" s="76"/>
+      <c r="BX3" s="76"/>
+      <c r="BY3" s="76"/>
+      <c r="BZ3" s="76"/>
+      <c r="CA3" s="76"/>
+      <c r="CB3" s="76"/>
+      <c r="CC3" s="77"/>
     </row>
     <row r="4" spans="1:97" ht="13.5" customHeight="1">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="66"/>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="66"/>
-      <c r="BT4" s="66"/>
-      <c r="BU4" s="66"/>
-      <c r="BV4" s="66"/>
-      <c r="BW4" s="66"/>
-      <c r="BX4" s="66"/>
-      <c r="BY4" s="66"/>
-      <c r="BZ4" s="66"/>
-      <c r="CA4" s="66"/>
-      <c r="CB4" s="66"/>
-      <c r="CC4" s="67"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
+      <c r="BP4" s="76"/>
+      <c r="BQ4" s="76"/>
+      <c r="BR4" s="76"/>
+      <c r="BS4" s="76"/>
+      <c r="BT4" s="76"/>
+      <c r="BU4" s="76"/>
+      <c r="BV4" s="76"/>
+      <c r="BW4" s="76"/>
+      <c r="BX4" s="76"/>
+      <c r="BY4" s="76"/>
+      <c r="BZ4" s="76"/>
+      <c r="CA4" s="76"/>
+      <c r="CB4" s="76"/>
+      <c r="CC4" s="77"/>
     </row>
     <row r="5" spans="1:97" ht="12" customHeight="1">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="69"/>
-      <c r="BD5" s="69"/>
-      <c r="BE5" s="69"/>
-      <c r="BF5" s="69"/>
-      <c r="BG5" s="69"/>
-      <c r="BH5" s="69"/>
-      <c r="BI5" s="69"/>
-      <c r="BJ5" s="69"/>
-      <c r="BK5" s="69"/>
-      <c r="BL5" s="69"/>
-      <c r="BM5" s="69"/>
-      <c r="BN5" s="69"/>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="69"/>
-      <c r="BS5" s="69"/>
-      <c r="BT5" s="69"/>
-      <c r="BU5" s="69"/>
-      <c r="BV5" s="69"/>
-      <c r="BW5" s="69"/>
-      <c r="BX5" s="69"/>
-      <c r="BY5" s="69"/>
-      <c r="BZ5" s="69"/>
-      <c r="CA5" s="69"/>
-      <c r="CB5" s="69"/>
-      <c r="CC5" s="70"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="67"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="79"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="79"/>
+      <c r="BM5" s="79"/>
+      <c r="BN5" s="79"/>
+      <c r="BO5" s="79"/>
+      <c r="BP5" s="79"/>
+      <c r="BQ5" s="79"/>
+      <c r="BR5" s="79"/>
+      <c r="BS5" s="79"/>
+      <c r="BT5" s="79"/>
+      <c r="BU5" s="79"/>
+      <c r="BV5" s="79"/>
+      <c r="BW5" s="79"/>
+      <c r="BX5" s="79"/>
+      <c r="BY5" s="79"/>
+      <c r="BZ5" s="79"/>
+      <c r="CA5" s="79"/>
+      <c r="CB5" s="79"/>
+      <c r="CC5" s="80"/>
     </row>
     <row r="6" spans="1:97" ht="3.75" customHeight="1"/>
     <row r="7" spans="1:97" ht="16.5" customHeight="1">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="58" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="58" t="s">
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="58" t="s">
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="59"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="71" t="s">
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="72"/>
-      <c r="BJ7" s="72"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="72"/>
-      <c r="BN7" s="72"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="72"/>
-      <c r="BQ7" s="72"/>
-      <c r="BR7" s="72"/>
-      <c r="BS7" s="72"/>
-      <c r="BT7" s="72"/>
-      <c r="BU7" s="72"/>
-      <c r="BV7" s="72"/>
-      <c r="BW7" s="72"/>
-      <c r="BX7" s="72"/>
-      <c r="BY7" s="72"/>
-      <c r="BZ7" s="72"/>
-      <c r="CA7" s="72"/>
-      <c r="CB7" s="72"/>
-      <c r="CC7" s="73"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="34"/>
+      <c r="BD7" s="34"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="34"/>
+      <c r="BL7" s="34"/>
+      <c r="BM7" s="34"/>
+      <c r="BN7" s="34"/>
+      <c r="BO7" s="34"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="34"/>
+      <c r="BR7" s="34"/>
+      <c r="BS7" s="34"/>
+      <c r="BT7" s="34"/>
+      <c r="BU7" s="34"/>
+      <c r="BV7" s="34"/>
+      <c r="BW7" s="34"/>
+      <c r="BX7" s="34"/>
+      <c r="BY7" s="34"/>
+      <c r="BZ7" s="34"/>
+      <c r="CA7" s="34"/>
+      <c r="CB7" s="34"/>
+      <c r="CC7" s="35"/>
     </row>
     <row r="8" spans="1:97" ht="16.5" customHeight="1">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="36"/>
-      <c r="BC8" s="36"/>
-      <c r="BD8" s="36"/>
-      <c r="BE8" s="36"/>
-      <c r="BF8" s="36"/>
-      <c r="BG8" s="36"/>
-      <c r="BH8" s="36"/>
-      <c r="BI8" s="36"/>
-      <c r="BJ8" s="36"/>
-      <c r="BK8" s="36"/>
-      <c r="BL8" s="36"/>
-      <c r="BM8" s="36"/>
-      <c r="BN8" s="36"/>
-      <c r="BO8" s="36"/>
-      <c r="BP8" s="36"/>
-      <c r="BQ8" s="36"/>
-      <c r="BR8" s="36"/>
-      <c r="BS8" s="36"/>
-      <c r="BT8" s="36"/>
-      <c r="BU8" s="36"/>
-      <c r="BV8" s="36"/>
-      <c r="BW8" s="36"/>
-      <c r="BX8" s="36"/>
-      <c r="BY8" s="36"/>
-      <c r="BZ8" s="36"/>
-      <c r="CA8" s="36"/>
-      <c r="CB8" s="36"/>
-      <c r="CC8" s="37"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="30"/>
+      <c r="AT8" s="30"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="30"/>
+      <c r="AX8" s="30"/>
+      <c r="AY8" s="30"/>
+      <c r="AZ8" s="31"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
+      <c r="BD8" s="40"/>
+      <c r="BE8" s="40"/>
+      <c r="BF8" s="40"/>
+      <c r="BG8" s="40"/>
+      <c r="BH8" s="40"/>
+      <c r="BI8" s="40"/>
+      <c r="BJ8" s="40"/>
+      <c r="BK8" s="40"/>
+      <c r="BL8" s="40"/>
+      <c r="BM8" s="40"/>
+      <c r="BN8" s="40"/>
+      <c r="BO8" s="40"/>
+      <c r="BP8" s="40"/>
+      <c r="BQ8" s="40"/>
+      <c r="BR8" s="40"/>
+      <c r="BS8" s="40"/>
+      <c r="BT8" s="40"/>
+      <c r="BU8" s="40"/>
+      <c r="BV8" s="40"/>
+      <c r="BW8" s="40"/>
+      <c r="BX8" s="40"/>
+      <c r="BY8" s="40"/>
+      <c r="BZ8" s="40"/>
+      <c r="CA8" s="40"/>
+      <c r="CB8" s="40"/>
+      <c r="CC8" s="41"/>
     </row>
     <row r="9" spans="1:97" ht="18" customHeight="1">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="71" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="28" t="s">
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29"/>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29"/>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29"/>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29"/>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29"/>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29"/>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="30"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="82"/>
+      <c r="BE9" s="82"/>
+      <c r="BF9" s="82"/>
+      <c r="BG9" s="82"/>
+      <c r="BH9" s="82"/>
+      <c r="BI9" s="82"/>
+      <c r="BJ9" s="82"/>
+      <c r="BK9" s="82"/>
+      <c r="BL9" s="82"/>
+      <c r="BM9" s="82"/>
+      <c r="BN9" s="82"/>
+      <c r="BO9" s="82"/>
+      <c r="BP9" s="82"/>
+      <c r="BQ9" s="82"/>
+      <c r="BR9" s="82"/>
+      <c r="BS9" s="82"/>
+      <c r="BT9" s="82"/>
+      <c r="BU9" s="82"/>
+      <c r="BV9" s="82"/>
+      <c r="BW9" s="82"/>
+      <c r="BX9" s="82"/>
+      <c r="BY9" s="82"/>
+      <c r="BZ9" s="82"/>
+      <c r="CA9" s="82"/>
+      <c r="CB9" s="82"/>
+      <c r="CC9" s="83"/>
     </row>
     <row r="10" spans="1:97" ht="41.25" customHeight="1">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="75"/>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="75"/>
-      <c r="BP10" s="75"/>
-      <c r="BQ10" s="75"/>
-      <c r="BR10" s="75"/>
-      <c r="BS10" s="75"/>
-      <c r="BT10" s="75"/>
-      <c r="BU10" s="75"/>
-      <c r="BV10" s="75"/>
-      <c r="BW10" s="75"/>
-      <c r="BX10" s="75"/>
-      <c r="BY10" s="75"/>
-      <c r="BZ10" s="75"/>
-      <c r="CA10" s="75"/>
-      <c r="CB10" s="75"/>
-      <c r="CC10" s="76"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43"/>
+      <c r="AY10" s="43"/>
+      <c r="AZ10" s="43"/>
+      <c r="BA10" s="43"/>
+      <c r="BB10" s="43"/>
+      <c r="BC10" s="43"/>
+      <c r="BD10" s="43"/>
+      <c r="BE10" s="43"/>
+      <c r="BF10" s="43"/>
+      <c r="BG10" s="43"/>
+      <c r="BH10" s="43"/>
+      <c r="BI10" s="43"/>
+      <c r="BJ10" s="43"/>
+      <c r="BK10" s="43"/>
+      <c r="BL10" s="43"/>
+      <c r="BM10" s="43"/>
+      <c r="BN10" s="43"/>
+      <c r="BO10" s="43"/>
+      <c r="BP10" s="43"/>
+      <c r="BQ10" s="43"/>
+      <c r="BR10" s="43"/>
+      <c r="BS10" s="43"/>
+      <c r="BT10" s="43"/>
+      <c r="BU10" s="43"/>
+      <c r="BV10" s="43"/>
+      <c r="BW10" s="43"/>
+      <c r="BX10" s="43"/>
+      <c r="BY10" s="43"/>
+      <c r="BZ10" s="43"/>
+      <c r="CA10" s="43"/>
+      <c r="CB10" s="43"/>
+      <c r="CC10" s="44"/>
     </row>
     <row r="11" spans="1:97" ht="3" customHeight="1">
       <c r="D11" s="15"/>
@@ -2868,16 +2868,16 @@
     <row r="12" spans="1:97" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3033,34 +3033,34 @@
     <row r="14" spans="1:97" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
@@ -3118,84 +3118,84 @@
     <row r="15" spans="1:97" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="14"/>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="78"/>
-      <c r="AZ15" s="78"/>
-      <c r="BA15" s="78"/>
-      <c r="BB15" s="78"/>
-      <c r="BC15" s="78"/>
-      <c r="BD15" s="78"/>
-      <c r="BE15" s="78"/>
-      <c r="BF15" s="78"/>
-      <c r="BG15" s="78"/>
-      <c r="BH15" s="78"/>
-      <c r="BI15" s="78"/>
-      <c r="BJ15" s="78"/>
-      <c r="BK15" s="78"/>
-      <c r="BL15" s="78"/>
-      <c r="BM15" s="78"/>
-      <c r="BN15" s="78"/>
-      <c r="BO15" s="78"/>
-      <c r="BP15" s="78"/>
-      <c r="BQ15" s="78"/>
-      <c r="BR15" s="78"/>
-      <c r="BS15" s="78"/>
-      <c r="BT15" s="78"/>
-      <c r="BU15" s="78"/>
-      <c r="BV15" s="78"/>
-      <c r="BW15" s="78"/>
-      <c r="BX15" s="78"/>
-      <c r="BY15" s="78"/>
-      <c r="BZ15" s="78"/>
-      <c r="CA15" s="78"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="28"/>
+      <c r="BG15" s="28"/>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="28"/>
+      <c r="BJ15" s="28"/>
+      <c r="BK15" s="28"/>
+      <c r="BL15" s="28"/>
+      <c r="BM15" s="28"/>
+      <c r="BN15" s="28"/>
+      <c r="BO15" s="28"/>
+      <c r="BP15" s="28"/>
+      <c r="BQ15" s="28"/>
+      <c r="BR15" s="28"/>
+      <c r="BS15" s="28"/>
+      <c r="BT15" s="28"/>
+      <c r="BU15" s="28"/>
+      <c r="BV15" s="28"/>
+      <c r="BW15" s="28"/>
+      <c r="BX15" s="28"/>
+      <c r="BY15" s="28"/>
+      <c r="BZ15" s="28"/>
+      <c r="CA15" s="28"/>
       <c r="CB15" s="16"/>
       <c r="CC15" s="19"/>
       <c r="CS15" s="10"/>
@@ -3203,84 +3203,84 @@
     <row r="16" spans="1:97" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="16"/>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="78"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="78"/>
-      <c r="AZ16" s="78"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="78"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="78"/>
-      <c r="BG16" s="78"/>
-      <c r="BH16" s="78"/>
-      <c r="BI16" s="78"/>
-      <c r="BJ16" s="78"/>
-      <c r="BK16" s="78"/>
-      <c r="BL16" s="78"/>
-      <c r="BM16" s="78"/>
-      <c r="BN16" s="78"/>
-      <c r="BO16" s="78"/>
-      <c r="BP16" s="78"/>
-      <c r="BQ16" s="78"/>
-      <c r="BR16" s="78"/>
-      <c r="BS16" s="78"/>
-      <c r="BT16" s="78"/>
-      <c r="BU16" s="78"/>
-      <c r="BV16" s="78"/>
-      <c r="BW16" s="78"/>
-      <c r="BX16" s="78"/>
-      <c r="BY16" s="78"/>
-      <c r="BZ16" s="78"/>
-      <c r="CA16" s="78"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="28"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="28"/>
+      <c r="BL16" s="28"/>
+      <c r="BM16" s="28"/>
+      <c r="BN16" s="28"/>
+      <c r="BO16" s="28"/>
+      <c r="BP16" s="28"/>
+      <c r="BQ16" s="28"/>
+      <c r="BR16" s="28"/>
+      <c r="BS16" s="28"/>
+      <c r="BT16" s="28"/>
+      <c r="BU16" s="28"/>
+      <c r="BV16" s="28"/>
+      <c r="BW16" s="28"/>
+      <c r="BX16" s="28"/>
+      <c r="BY16" s="28"/>
+      <c r="BZ16" s="28"/>
+      <c r="CA16" s="28"/>
       <c r="CB16" s="16"/>
       <c r="CC16" s="19"/>
       <c r="CS16" s="10"/>
@@ -3288,84 +3288,84 @@
     <row r="17" spans="1:97" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="16"/>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="78"/>
-      <c r="AZ17" s="78"/>
-      <c r="BA17" s="78"/>
-      <c r="BB17" s="78"/>
-      <c r="BC17" s="78"/>
-      <c r="BD17" s="78"/>
-      <c r="BE17" s="78"/>
-      <c r="BF17" s="78"/>
-      <c r="BG17" s="78"/>
-      <c r="BH17" s="78"/>
-      <c r="BI17" s="78"/>
-      <c r="BJ17" s="78"/>
-      <c r="BK17" s="78"/>
-      <c r="BL17" s="78"/>
-      <c r="BM17" s="78"/>
-      <c r="BN17" s="78"/>
-      <c r="BO17" s="78"/>
-      <c r="BP17" s="78"/>
-      <c r="BQ17" s="78"/>
-      <c r="BR17" s="78"/>
-      <c r="BS17" s="78"/>
-      <c r="BT17" s="78"/>
-      <c r="BU17" s="78"/>
-      <c r="BV17" s="78"/>
-      <c r="BW17" s="78"/>
-      <c r="BX17" s="78"/>
-      <c r="BY17" s="78"/>
-      <c r="BZ17" s="78"/>
-      <c r="CA17" s="78"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="28"/>
+      <c r="AU17" s="28"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="28"/>
+      <c r="AX17" s="28"/>
+      <c r="AY17" s="28"/>
+      <c r="AZ17" s="28"/>
+      <c r="BA17" s="28"/>
+      <c r="BB17" s="28"/>
+      <c r="BC17" s="28"/>
+      <c r="BD17" s="28"/>
+      <c r="BE17" s="28"/>
+      <c r="BF17" s="28"/>
+      <c r="BG17" s="28"/>
+      <c r="BH17" s="28"/>
+      <c r="BI17" s="28"/>
+      <c r="BJ17" s="28"/>
+      <c r="BK17" s="28"/>
+      <c r="BL17" s="28"/>
+      <c r="BM17" s="28"/>
+      <c r="BN17" s="28"/>
+      <c r="BO17" s="28"/>
+      <c r="BP17" s="28"/>
+      <c r="BQ17" s="28"/>
+      <c r="BR17" s="28"/>
+      <c r="BS17" s="28"/>
+      <c r="BT17" s="28"/>
+      <c r="BU17" s="28"/>
+      <c r="BV17" s="28"/>
+      <c r="BW17" s="28"/>
+      <c r="BX17" s="28"/>
+      <c r="BY17" s="28"/>
+      <c r="BZ17" s="28"/>
+      <c r="CA17" s="28"/>
       <c r="CB17" s="16"/>
       <c r="CC17" s="19"/>
       <c r="CS17" s="10"/>
@@ -3373,84 +3373,84 @@
     <row r="18" spans="1:97" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="16"/>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="78"/>
-      <c r="AZ18" s="78"/>
-      <c r="BA18" s="78"/>
-      <c r="BB18" s="78"/>
-      <c r="BC18" s="78"/>
-      <c r="BD18" s="78"/>
-      <c r="BE18" s="78"/>
-      <c r="BF18" s="78"/>
-      <c r="BG18" s="78"/>
-      <c r="BH18" s="78"/>
-      <c r="BI18" s="78"/>
-      <c r="BJ18" s="78"/>
-      <c r="BK18" s="78"/>
-      <c r="BL18" s="78"/>
-      <c r="BM18" s="78"/>
-      <c r="BN18" s="78"/>
-      <c r="BO18" s="78"/>
-      <c r="BP18" s="78"/>
-      <c r="BQ18" s="78"/>
-      <c r="BR18" s="78"/>
-      <c r="BS18" s="78"/>
-      <c r="BT18" s="78"/>
-      <c r="BU18" s="78"/>
-      <c r="BV18" s="78"/>
-      <c r="BW18" s="78"/>
-      <c r="BX18" s="78"/>
-      <c r="BY18" s="78"/>
-      <c r="BZ18" s="78"/>
-      <c r="CA18" s="78"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="28"/>
+      <c r="BA18" s="28"/>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="28"/>
+      <c r="BL18" s="28"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="28"/>
+      <c r="BP18" s="28"/>
+      <c r="BQ18" s="28"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="28"/>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
+      <c r="BV18" s="28"/>
+      <c r="BW18" s="28"/>
+      <c r="BX18" s="28"/>
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="28"/>
+      <c r="CA18" s="28"/>
       <c r="CB18" s="16"/>
       <c r="CC18" s="19"/>
       <c r="CS18" s="13"/>
@@ -3458,84 +3458,84 @@
     <row r="19" spans="1:97" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="14"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="78"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="78"/>
-      <c r="AS19" s="78"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="78"/>
-      <c r="BA19" s="78"/>
-      <c r="BB19" s="78"/>
-      <c r="BC19" s="78"/>
-      <c r="BD19" s="78"/>
-      <c r="BE19" s="78"/>
-      <c r="BF19" s="78"/>
-      <c r="BG19" s="78"/>
-      <c r="BH19" s="78"/>
-      <c r="BI19" s="78"/>
-      <c r="BJ19" s="78"/>
-      <c r="BK19" s="78"/>
-      <c r="BL19" s="78"/>
-      <c r="BM19" s="78"/>
-      <c r="BN19" s="78"/>
-      <c r="BO19" s="78"/>
-      <c r="BP19" s="78"/>
-      <c r="BQ19" s="78"/>
-      <c r="BR19" s="78"/>
-      <c r="BS19" s="78"/>
-      <c r="BT19" s="78"/>
-      <c r="BU19" s="78"/>
-      <c r="BV19" s="78"/>
-      <c r="BW19" s="78"/>
-      <c r="BX19" s="78"/>
-      <c r="BY19" s="78"/>
-      <c r="BZ19" s="78"/>
-      <c r="CA19" s="78"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="28"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="28"/>
+      <c r="BD19" s="28"/>
+      <c r="BE19" s="28"/>
+      <c r="BF19" s="28"/>
+      <c r="BG19" s="28"/>
+      <c r="BH19" s="28"/>
+      <c r="BI19" s="28"/>
+      <c r="BJ19" s="28"/>
+      <c r="BK19" s="28"/>
+      <c r="BL19" s="28"/>
+      <c r="BM19" s="28"/>
+      <c r="BN19" s="28"/>
+      <c r="BO19" s="28"/>
+      <c r="BP19" s="28"/>
+      <c r="BQ19" s="28"/>
+      <c r="BR19" s="28"/>
+      <c r="BS19" s="28"/>
+      <c r="BT19" s="28"/>
+      <c r="BU19" s="28"/>
+      <c r="BV19" s="28"/>
+      <c r="BW19" s="28"/>
+      <c r="BX19" s="28"/>
+      <c r="BY19" s="28"/>
+      <c r="BZ19" s="28"/>
+      <c r="CA19" s="28"/>
       <c r="CB19" s="16"/>
       <c r="CC19" s="19"/>
       <c r="CS19" s="10"/>
@@ -3543,84 +3543,84 @@
     <row r="20" spans="1:97" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="16"/>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="78"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="78"/>
-      <c r="AZ20" s="78"/>
-      <c r="BA20" s="78"/>
-      <c r="BB20" s="78"/>
-      <c r="BC20" s="78"/>
-      <c r="BD20" s="78"/>
-      <c r="BE20" s="78"/>
-      <c r="BF20" s="78"/>
-      <c r="BG20" s="78"/>
-      <c r="BH20" s="78"/>
-      <c r="BI20" s="78"/>
-      <c r="BJ20" s="78"/>
-      <c r="BK20" s="78"/>
-      <c r="BL20" s="78"/>
-      <c r="BM20" s="78"/>
-      <c r="BN20" s="78"/>
-      <c r="BO20" s="78"/>
-      <c r="BP20" s="78"/>
-      <c r="BQ20" s="78"/>
-      <c r="BR20" s="78"/>
-      <c r="BS20" s="78"/>
-      <c r="BT20" s="78"/>
-      <c r="BU20" s="78"/>
-      <c r="BV20" s="78"/>
-      <c r="BW20" s="78"/>
-      <c r="BX20" s="78"/>
-      <c r="BY20" s="78"/>
-      <c r="BZ20" s="78"/>
-      <c r="CA20" s="78"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="28"/>
+      <c r="AX20" s="28"/>
+      <c r="AY20" s="28"/>
+      <c r="AZ20" s="28"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="28"/>
+      <c r="BE20" s="28"/>
+      <c r="BF20" s="28"/>
+      <c r="BG20" s="28"/>
+      <c r="BH20" s="28"/>
+      <c r="BI20" s="28"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="28"/>
+      <c r="BL20" s="28"/>
+      <c r="BM20" s="28"/>
+      <c r="BN20" s="28"/>
+      <c r="BO20" s="28"/>
+      <c r="BP20" s="28"/>
+      <c r="BQ20" s="28"/>
+      <c r="BR20" s="28"/>
+      <c r="BS20" s="28"/>
+      <c r="BT20" s="28"/>
+      <c r="BU20" s="28"/>
+      <c r="BV20" s="28"/>
+      <c r="BW20" s="28"/>
+      <c r="BX20" s="28"/>
+      <c r="BY20" s="28"/>
+      <c r="BZ20" s="28"/>
+      <c r="CA20" s="28"/>
       <c r="CB20" s="16"/>
       <c r="CC20" s="19"/>
       <c r="CS20" s="13"/>
@@ -3628,84 +3628,84 @@
     <row r="21" spans="1:97" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="14"/>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="78"/>
-      <c r="AZ21" s="78"/>
-      <c r="BA21" s="78"/>
-      <c r="BB21" s="78"/>
-      <c r="BC21" s="78"/>
-      <c r="BD21" s="78"/>
-      <c r="BE21" s="78"/>
-      <c r="BF21" s="78"/>
-      <c r="BG21" s="78"/>
-      <c r="BH21" s="78"/>
-      <c r="BI21" s="78"/>
-      <c r="BJ21" s="78"/>
-      <c r="BK21" s="78"/>
-      <c r="BL21" s="78"/>
-      <c r="BM21" s="78"/>
-      <c r="BN21" s="78"/>
-      <c r="BO21" s="78"/>
-      <c r="BP21" s="78"/>
-      <c r="BQ21" s="78"/>
-      <c r="BR21" s="78"/>
-      <c r="BS21" s="78"/>
-      <c r="BT21" s="78"/>
-      <c r="BU21" s="78"/>
-      <c r="BV21" s="78"/>
-      <c r="BW21" s="78"/>
-      <c r="BX21" s="78"/>
-      <c r="BY21" s="78"/>
-      <c r="BZ21" s="78"/>
-      <c r="CA21" s="78"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="28"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="28"/>
+      <c r="AW21" s="28"/>
+      <c r="AX21" s="28"/>
+      <c r="AY21" s="28"/>
+      <c r="AZ21" s="28"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="28"/>
+      <c r="BC21" s="28"/>
+      <c r="BD21" s="28"/>
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="28"/>
+      <c r="BG21" s="28"/>
+      <c r="BH21" s="28"/>
+      <c r="BI21" s="28"/>
+      <c r="BJ21" s="28"/>
+      <c r="BK21" s="28"/>
+      <c r="BL21" s="28"/>
+      <c r="BM21" s="28"/>
+      <c r="BN21" s="28"/>
+      <c r="BO21" s="28"/>
+      <c r="BP21" s="28"/>
+      <c r="BQ21" s="28"/>
+      <c r="BR21" s="28"/>
+      <c r="BS21" s="28"/>
+      <c r="BT21" s="28"/>
+      <c r="BU21" s="28"/>
+      <c r="BV21" s="28"/>
+      <c r="BW21" s="28"/>
+      <c r="BX21" s="28"/>
+      <c r="BY21" s="28"/>
+      <c r="BZ21" s="28"/>
+      <c r="CA21" s="28"/>
       <c r="CB21" s="16"/>
       <c r="CC21" s="19"/>
       <c r="CS21" s="13"/>
@@ -3713,84 +3713,84 @@
     <row r="22" spans="1:97" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="16"/>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="78"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="78"/>
-      <c r="BD22" s="78"/>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="78"/>
-      <c r="BG22" s="78"/>
-      <c r="BH22" s="78"/>
-      <c r="BI22" s="78"/>
-      <c r="BJ22" s="78"/>
-      <c r="BK22" s="78"/>
-      <c r="BL22" s="78"/>
-      <c r="BM22" s="78"/>
-      <c r="BN22" s="78"/>
-      <c r="BO22" s="78"/>
-      <c r="BP22" s="78"/>
-      <c r="BQ22" s="78"/>
-      <c r="BR22" s="78"/>
-      <c r="BS22" s="78"/>
-      <c r="BT22" s="78"/>
-      <c r="BU22" s="78"/>
-      <c r="BV22" s="78"/>
-      <c r="BW22" s="78"/>
-      <c r="BX22" s="78"/>
-      <c r="BY22" s="78"/>
-      <c r="BZ22" s="78"/>
-      <c r="CA22" s="78"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="28"/>
+      <c r="AZ22" s="28"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="28"/>
+      <c r="BE22" s="28"/>
+      <c r="BF22" s="28"/>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="28"/>
+      <c r="BI22" s="28"/>
+      <c r="BJ22" s="28"/>
+      <c r="BK22" s="28"/>
+      <c r="BL22" s="28"/>
+      <c r="BM22" s="28"/>
+      <c r="BN22" s="28"/>
+      <c r="BO22" s="28"/>
+      <c r="BP22" s="28"/>
+      <c r="BQ22" s="28"/>
+      <c r="BR22" s="28"/>
+      <c r="BS22" s="28"/>
+      <c r="BT22" s="28"/>
+      <c r="BU22" s="28"/>
+      <c r="BV22" s="28"/>
+      <c r="BW22" s="28"/>
+      <c r="BX22" s="28"/>
+      <c r="BY22" s="28"/>
+      <c r="BZ22" s="28"/>
+      <c r="CA22" s="28"/>
       <c r="CB22" s="16"/>
       <c r="CC22" s="19"/>
       <c r="CS22" s="13"/>
@@ -3967,82 +3967,82 @@
       <c r="A25" s="16"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="80"/>
-      <c r="AF25" s="80"/>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="80"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="80"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="80"/>
-      <c r="AN25" s="80"/>
-      <c r="AO25" s="80"/>
-      <c r="AP25" s="80"/>
-      <c r="AQ25" s="80"/>
-      <c r="AR25" s="80"/>
-      <c r="AS25" s="80"/>
-      <c r="AT25" s="80"/>
-      <c r="AU25" s="80"/>
-      <c r="AV25" s="80"/>
-      <c r="AW25" s="80"/>
-      <c r="AX25" s="80"/>
-      <c r="AY25" s="80"/>
-      <c r="AZ25" s="80"/>
-      <c r="BA25" s="80"/>
-      <c r="BB25" s="80"/>
-      <c r="BC25" s="80"/>
-      <c r="BD25" s="80"/>
-      <c r="BE25" s="80"/>
-      <c r="BF25" s="80"/>
-      <c r="BG25" s="80"/>
-      <c r="BH25" s="80"/>
-      <c r="BI25" s="80"/>
-      <c r="BJ25" s="80"/>
-      <c r="BK25" s="80"/>
-      <c r="BL25" s="80"/>
-      <c r="BM25" s="80"/>
-      <c r="BN25" s="80"/>
-      <c r="BO25" s="80"/>
-      <c r="BP25" s="80"/>
-      <c r="BQ25" s="80"/>
-      <c r="BR25" s="80"/>
-      <c r="BS25" s="80"/>
-      <c r="BT25" s="80"/>
-      <c r="BU25" s="80"/>
-      <c r="BV25" s="80"/>
-      <c r="BW25" s="80"/>
-      <c r="BX25" s="80"/>
-      <c r="BY25" s="80"/>
-      <c r="BZ25" s="80"/>
-      <c r="CA25" s="81"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="48"/>
+      <c r="BA25" s="48"/>
+      <c r="BB25" s="48"/>
+      <c r="BC25" s="48"/>
+      <c r="BD25" s="48"/>
+      <c r="BE25" s="48"/>
+      <c r="BF25" s="48"/>
+      <c r="BG25" s="48"/>
+      <c r="BH25" s="48"/>
+      <c r="BI25" s="48"/>
+      <c r="BJ25" s="48"/>
+      <c r="BK25" s="48"/>
+      <c r="BL25" s="48"/>
+      <c r="BM25" s="48"/>
+      <c r="BN25" s="48"/>
+      <c r="BO25" s="48"/>
+      <c r="BP25" s="48"/>
+      <c r="BQ25" s="48"/>
+      <c r="BR25" s="48"/>
+      <c r="BS25" s="48"/>
+      <c r="BT25" s="48"/>
+      <c r="BU25" s="48"/>
+      <c r="BV25" s="48"/>
+      <c r="BW25" s="48"/>
+      <c r="BX25" s="48"/>
+      <c r="BY25" s="48"/>
+      <c r="BZ25" s="48"/>
+      <c r="CA25" s="49"/>
       <c r="CB25" s="16"/>
       <c r="CC25" s="19"/>
     </row>
@@ -4050,82 +4050,82 @@
       <c r="A26" s="16"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="83"/>
-      <c r="AE26" s="83"/>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="83"/>
-      <c r="AH26" s="83"/>
-      <c r="AI26" s="83"/>
-      <c r="AJ26" s="83"/>
-      <c r="AK26" s="83"/>
-      <c r="AL26" s="83"/>
-      <c r="AM26" s="83"/>
-      <c r="AN26" s="83"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="83"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83"/>
-      <c r="AS26" s="83"/>
-      <c r="AT26" s="83"/>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="83"/>
-      <c r="BA26" s="83"/>
-      <c r="BB26" s="83"/>
-      <c r="BC26" s="83"/>
-      <c r="BD26" s="83"/>
-      <c r="BE26" s="83"/>
-      <c r="BF26" s="83"/>
-      <c r="BG26" s="83"/>
-      <c r="BH26" s="83"/>
-      <c r="BI26" s="83"/>
-      <c r="BJ26" s="83"/>
-      <c r="BK26" s="83"/>
-      <c r="BL26" s="83"/>
-      <c r="BM26" s="83"/>
-      <c r="BN26" s="83"/>
-      <c r="BO26" s="83"/>
-      <c r="BP26" s="83"/>
-      <c r="BQ26" s="83"/>
-      <c r="BR26" s="83"/>
-      <c r="BS26" s="83"/>
-      <c r="BT26" s="83"/>
-      <c r="BU26" s="83"/>
-      <c r="BV26" s="83"/>
-      <c r="BW26" s="83"/>
-      <c r="BX26" s="83"/>
-      <c r="BY26" s="83"/>
-      <c r="BZ26" s="83"/>
-      <c r="CA26" s="84"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="51"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="51"/>
+      <c r="BL26" s="51"/>
+      <c r="BM26" s="51"/>
+      <c r="BN26" s="51"/>
+      <c r="BO26" s="51"/>
+      <c r="BP26" s="51"/>
+      <c r="BQ26" s="51"/>
+      <c r="BR26" s="51"/>
+      <c r="BS26" s="51"/>
+      <c r="BT26" s="51"/>
+      <c r="BU26" s="51"/>
+      <c r="BV26" s="51"/>
+      <c r="BW26" s="51"/>
+      <c r="BX26" s="51"/>
+      <c r="BY26" s="51"/>
+      <c r="BZ26" s="51"/>
+      <c r="CA26" s="52"/>
       <c r="CB26" s="16"/>
       <c r="CC26" s="19"/>
     </row>
@@ -4133,82 +4133,82 @@
       <c r="A27" s="16"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="83"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="83"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="83"/>
-      <c r="AO27" s="83"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="83"/>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="83"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="83"/>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="83"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="83"/>
-      <c r="BE27" s="83"/>
-      <c r="BF27" s="83"/>
-      <c r="BG27" s="83"/>
-      <c r="BH27" s="83"/>
-      <c r="BI27" s="83"/>
-      <c r="BJ27" s="83"/>
-      <c r="BK27" s="83"/>
-      <c r="BL27" s="83"/>
-      <c r="BM27" s="83"/>
-      <c r="BN27" s="83"/>
-      <c r="BO27" s="83"/>
-      <c r="BP27" s="83"/>
-      <c r="BQ27" s="83"/>
-      <c r="BR27" s="83"/>
-      <c r="BS27" s="83"/>
-      <c r="BT27" s="83"/>
-      <c r="BU27" s="83"/>
-      <c r="BV27" s="83"/>
-      <c r="BW27" s="83"/>
-      <c r="BX27" s="83"/>
-      <c r="BY27" s="83"/>
-      <c r="BZ27" s="83"/>
-      <c r="CA27" s="84"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="51"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="51"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="51"/>
+      <c r="BA27" s="51"/>
+      <c r="BB27" s="51"/>
+      <c r="BC27" s="51"/>
+      <c r="BD27" s="51"/>
+      <c r="BE27" s="51"/>
+      <c r="BF27" s="51"/>
+      <c r="BG27" s="51"/>
+      <c r="BH27" s="51"/>
+      <c r="BI27" s="51"/>
+      <c r="BJ27" s="51"/>
+      <c r="BK27" s="51"/>
+      <c r="BL27" s="51"/>
+      <c r="BM27" s="51"/>
+      <c r="BN27" s="51"/>
+      <c r="BO27" s="51"/>
+      <c r="BP27" s="51"/>
+      <c r="BQ27" s="51"/>
+      <c r="BR27" s="51"/>
+      <c r="BS27" s="51"/>
+      <c r="BT27" s="51"/>
+      <c r="BU27" s="51"/>
+      <c r="BV27" s="51"/>
+      <c r="BW27" s="51"/>
+      <c r="BX27" s="51"/>
+      <c r="BY27" s="51"/>
+      <c r="BZ27" s="51"/>
+      <c r="CA27" s="52"/>
       <c r="CB27" s="16"/>
       <c r="CC27" s="19"/>
     </row>
@@ -4216,82 +4216,82 @@
       <c r="A28" s="16"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="83"/>
-      <c r="AH28" s="83"/>
-      <c r="AI28" s="83"/>
-      <c r="AJ28" s="83"/>
-      <c r="AK28" s="83"/>
-      <c r="AL28" s="83"/>
-      <c r="AM28" s="83"/>
-      <c r="AN28" s="83"/>
-      <c r="AO28" s="83"/>
-      <c r="AP28" s="83"/>
-      <c r="AQ28" s="83"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="83"/>
-      <c r="AT28" s="83"/>
-      <c r="AU28" s="83"/>
-      <c r="AV28" s="83"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="83"/>
-      <c r="AY28" s="83"/>
-      <c r="AZ28" s="83"/>
-      <c r="BA28" s="83"/>
-      <c r="BB28" s="83"/>
-      <c r="BC28" s="83"/>
-      <c r="BD28" s="83"/>
-      <c r="BE28" s="83"/>
-      <c r="BF28" s="83"/>
-      <c r="BG28" s="83"/>
-      <c r="BH28" s="83"/>
-      <c r="BI28" s="83"/>
-      <c r="BJ28" s="83"/>
-      <c r="BK28" s="83"/>
-      <c r="BL28" s="83"/>
-      <c r="BM28" s="83"/>
-      <c r="BN28" s="83"/>
-      <c r="BO28" s="83"/>
-      <c r="BP28" s="83"/>
-      <c r="BQ28" s="83"/>
-      <c r="BR28" s="83"/>
-      <c r="BS28" s="83"/>
-      <c r="BT28" s="83"/>
-      <c r="BU28" s="83"/>
-      <c r="BV28" s="83"/>
-      <c r="BW28" s="83"/>
-      <c r="BX28" s="83"/>
-      <c r="BY28" s="83"/>
-      <c r="BZ28" s="83"/>
-      <c r="CA28" s="84"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="51"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="51"/>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="51"/>
+      <c r="AZ28" s="51"/>
+      <c r="BA28" s="51"/>
+      <c r="BB28" s="51"/>
+      <c r="BC28" s="51"/>
+      <c r="BD28" s="51"/>
+      <c r="BE28" s="51"/>
+      <c r="BF28" s="51"/>
+      <c r="BG28" s="51"/>
+      <c r="BH28" s="51"/>
+      <c r="BI28" s="51"/>
+      <c r="BJ28" s="51"/>
+      <c r="BK28" s="51"/>
+      <c r="BL28" s="51"/>
+      <c r="BM28" s="51"/>
+      <c r="BN28" s="51"/>
+      <c r="BO28" s="51"/>
+      <c r="BP28" s="51"/>
+      <c r="BQ28" s="51"/>
+      <c r="BR28" s="51"/>
+      <c r="BS28" s="51"/>
+      <c r="BT28" s="51"/>
+      <c r="BU28" s="51"/>
+      <c r="BV28" s="51"/>
+      <c r="BW28" s="51"/>
+      <c r="BX28" s="51"/>
+      <c r="BY28" s="51"/>
+      <c r="BZ28" s="51"/>
+      <c r="CA28" s="52"/>
       <c r="CB28" s="16"/>
       <c r="CC28" s="19"/>
     </row>
@@ -4299,82 +4299,82 @@
       <c r="A29" s="16"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="86"/>
-      <c r="AJ29" s="86"/>
-      <c r="AK29" s="86"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="86"/>
-      <c r="AN29" s="86"/>
-      <c r="AO29" s="86"/>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="86"/>
-      <c r="AS29" s="86"/>
-      <c r="AT29" s="86"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
-      <c r="AX29" s="86"/>
-      <c r="AY29" s="86"/>
-      <c r="AZ29" s="86"/>
-      <c r="BA29" s="86"/>
-      <c r="BB29" s="86"/>
-      <c r="BC29" s="86"/>
-      <c r="BD29" s="86"/>
-      <c r="BE29" s="86"/>
-      <c r="BF29" s="86"/>
-      <c r="BG29" s="86"/>
-      <c r="BH29" s="86"/>
-      <c r="BI29" s="86"/>
-      <c r="BJ29" s="86"/>
-      <c r="BK29" s="86"/>
-      <c r="BL29" s="86"/>
-      <c r="BM29" s="86"/>
-      <c r="BN29" s="86"/>
-      <c r="BO29" s="86"/>
-      <c r="BP29" s="86"/>
-      <c r="BQ29" s="86"/>
-      <c r="BR29" s="86"/>
-      <c r="BS29" s="86"/>
-      <c r="BT29" s="86"/>
-      <c r="BU29" s="86"/>
-      <c r="BV29" s="86"/>
-      <c r="BW29" s="86"/>
-      <c r="BX29" s="86"/>
-      <c r="BY29" s="86"/>
-      <c r="BZ29" s="86"/>
-      <c r="CA29" s="87"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="54"/>
+      <c r="AV29" s="54"/>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="54"/>
+      <c r="BA29" s="54"/>
+      <c r="BB29" s="54"/>
+      <c r="BC29" s="54"/>
+      <c r="BD29" s="54"/>
+      <c r="BE29" s="54"/>
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="54"/>
+      <c r="BI29" s="54"/>
+      <c r="BJ29" s="54"/>
+      <c r="BK29" s="54"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="54"/>
+      <c r="BN29" s="54"/>
+      <c r="BO29" s="54"/>
+      <c r="BP29" s="54"/>
+      <c r="BQ29" s="54"/>
+      <c r="BR29" s="54"/>
+      <c r="BS29" s="54"/>
+      <c r="BT29" s="54"/>
+      <c r="BU29" s="54"/>
+      <c r="BV29" s="54"/>
+      <c r="BW29" s="54"/>
+      <c r="BX29" s="54"/>
+      <c r="BY29" s="54"/>
+      <c r="BZ29" s="54"/>
+      <c r="CA29" s="55"/>
       <c r="CB29" s="16"/>
       <c r="CC29" s="19"/>
     </row>
@@ -4544,102 +4544,102 @@
     </row>
     <row r="32" spans="1:97" ht="3" customHeight="1"/>
     <row r="33" spans="2:81" s="7" customFormat="1" ht="18" customHeight="1">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="38" t="s">
+      <c r="C33" s="37"/>
+      <c r="D33" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="44" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="44" t="s">
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AI33" s="38"/>
-      <c r="AJ33" s="38"/>
-      <c r="AK33" s="38"/>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
-      <c r="AS33" s="38"/>
-      <c r="AT33" s="38"/>
-      <c r="AU33" s="38"/>
-      <c r="AV33" s="38"/>
-      <c r="AW33" s="38"/>
-      <c r="AX33" s="47" t="s">
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="36"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="36"/>
+      <c r="AR33" s="36"/>
+      <c r="AS33" s="36"/>
+      <c r="AT33" s="36"/>
+      <c r="AU33" s="36"/>
+      <c r="AV33" s="36"/>
+      <c r="AW33" s="36"/>
+      <c r="AX33" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AY33" s="47"/>
-      <c r="AZ33" s="47"/>
-      <c r="BA33" s="47"/>
-      <c r="BB33" s="47"/>
-      <c r="BC33" s="47"/>
-      <c r="BD33" s="47"/>
-      <c r="BE33" s="47"/>
-      <c r="BF33" s="38" t="s">
+      <c r="AY33" s="91"/>
+      <c r="AZ33" s="91"/>
+      <c r="BA33" s="91"/>
+      <c r="BB33" s="91"/>
+      <c r="BC33" s="91"/>
+      <c r="BD33" s="91"/>
+      <c r="BE33" s="91"/>
+      <c r="BF33" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="BG33" s="38"/>
-      <c r="BH33" s="38"/>
-      <c r="BI33" s="38"/>
-      <c r="BJ33" s="38"/>
-      <c r="BK33" s="38"/>
-      <c r="BL33" s="38"/>
-      <c r="BM33" s="38"/>
-      <c r="BN33" s="38"/>
-      <c r="BO33" s="38"/>
-      <c r="BP33" s="39"/>
-      <c r="BQ33" s="44" t="s">
+      <c r="BG33" s="36"/>
+      <c r="BH33" s="36"/>
+      <c r="BI33" s="36"/>
+      <c r="BJ33" s="36"/>
+      <c r="BK33" s="36"/>
+      <c r="BL33" s="36"/>
+      <c r="BM33" s="36"/>
+      <c r="BN33" s="36"/>
+      <c r="BO33" s="36"/>
+      <c r="BP33" s="37"/>
+      <c r="BQ33" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BR33" s="45"/>
-      <c r="BS33" s="45"/>
-      <c r="BT33" s="45"/>
-      <c r="BU33" s="45"/>
-      <c r="BV33" s="46"/>
-      <c r="BW33" s="47" t="s">
+      <c r="BR33" s="89"/>
+      <c r="BS33" s="89"/>
+      <c r="BT33" s="89"/>
+      <c r="BU33" s="89"/>
+      <c r="BV33" s="90"/>
+      <c r="BW33" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="BX33" s="47"/>
-      <c r="BY33" s="47"/>
-      <c r="BZ33" s="47"/>
-      <c r="CA33" s="47"/>
-      <c r="CB33" s="47"/>
-      <c r="CC33" s="47"/>
+      <c r="BX33" s="91"/>
+      <c r="BY33" s="91"/>
+      <c r="BZ33" s="91"/>
+      <c r="CA33" s="91"/>
+      <c r="CB33" s="91"/>
+      <c r="CC33" s="91"/>
     </row>
     <row r="34" spans="2:81" s="8" customFormat="1">
       <c r="D34" s="9"/>
@@ -4799,14 +4799,24 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="O20:CA20"/>
-    <mergeCell ref="O21:CA21"/>
-    <mergeCell ref="O22:CA22"/>
-    <mergeCell ref="AH8:AZ8"/>
-    <mergeCell ref="B9:W9"/>
-    <mergeCell ref="X9:AG9"/>
-    <mergeCell ref="O18:CA18"/>
-    <mergeCell ref="O19:CA19"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="BF33:BP33"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="BQ33:BV33"/>
+    <mergeCell ref="AX33:BE33"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D15:N15"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="AH9:CC9"/>
+    <mergeCell ref="BW33:CC33"/>
+    <mergeCell ref="B1:AU5"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AH7:AZ7"/>
+    <mergeCell ref="AV1:CC5"/>
+    <mergeCell ref="BA7:CC7"/>
+    <mergeCell ref="B7:W7"/>
     <mergeCell ref="D33:L33"/>
     <mergeCell ref="M33:AG33"/>
     <mergeCell ref="AH33:AW33"/>
@@ -4823,27 +4833,17 @@
     <mergeCell ref="O17:CA17"/>
     <mergeCell ref="D25:CA29"/>
     <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="B1:AU5"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="AH7:AZ7"/>
-    <mergeCell ref="AV1:CC5"/>
-    <mergeCell ref="BA7:CC7"/>
-    <mergeCell ref="B7:W7"/>
+    <mergeCell ref="O20:CA20"/>
+    <mergeCell ref="O21:CA21"/>
+    <mergeCell ref="O22:CA22"/>
+    <mergeCell ref="AH8:AZ8"/>
+    <mergeCell ref="B9:W9"/>
+    <mergeCell ref="X9:AG9"/>
+    <mergeCell ref="O18:CA18"/>
+    <mergeCell ref="O19:CA19"/>
     <mergeCell ref="B8:W8"/>
     <mergeCell ref="B10:W10"/>
     <mergeCell ref="X10:AG10"/>
-    <mergeCell ref="BF33:BP33"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="BQ33:BV33"/>
-    <mergeCell ref="AX33:BE33"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="D15:N15"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="AH9:CC9"/>
-    <mergeCell ref="BW33:CC33"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="20"/>
   <dataValidations count="1">
